--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11493\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BCCC89-7F5F-4FC9-8A6D-B8367F4F025A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13980" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="970">
   <si>
     <t>hyper text</t>
   </si>
@@ -307,7 +301,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(i)</t>
     </r>
@@ -325,7 +319,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(i)</t>
     </r>
@@ -425,7 +419,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(I)</t>
     </r>
@@ -476,7 +470,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ɛ</t>
     </r>
@@ -496,7 +490,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>I</t>
     </r>
@@ -525,7 +519,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ei</t>
     </r>
@@ -660,7 +654,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>r</t>
     </r>
@@ -680,7 +674,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(a)</t>
     </r>
@@ -698,7 +692,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(r)</t>
     </r>
@@ -716,7 +710,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(a)</t>
     </r>
@@ -734,7 +728,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>a</t>
     </r>
@@ -752,7 +746,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>o</t>
     </r>
@@ -847,7 +841,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(ɔ)</t>
     </r>
@@ -865,7 +859,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>er</t>
     </r>
@@ -1030,7 +1024,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(o)</t>
     </r>
@@ -1095,7 +1089,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>u</t>
     </r>
@@ -1176,7 +1170,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1194,7 +1188,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1253,7 +1247,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(U)</t>
     </r>
@@ -1271,7 +1265,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>er</t>
     </r>
@@ -1327,7 +1321,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1345,7 +1339,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1427,7 +1421,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(ʌ)</t>
     </r>
@@ -1481,7 +1475,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ʌr</t>
     </r>
@@ -1530,7 +1524,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ər</t>
     </r>
@@ -1589,7 +1583,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ɪ</t>
     </r>
@@ -2139,7 +2133,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2157,7 +2151,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -2317,7 +2311,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -2355,7 +2349,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -2373,7 +2367,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2391,7 +2385,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2438,7 +2432,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>zhe</t>
     </r>
@@ -2456,7 +2450,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2587,7 +2581,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>eng</t>
     </r>
@@ -2605,7 +2599,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2661,7 +2655,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>l</t>
     </r>
@@ -2706,7 +2700,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(u)</t>
     </r>
@@ -2765,7 +2759,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>i</t>
     </r>
@@ -2803,7 +2797,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ye</t>
     </r>
@@ -2847,7 +2841,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>h</t>
     </r>
@@ -2906,7 +2900,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>w</t>
     </r>
@@ -3932,6 +3926,158 @@
     <t xml:space="preserve"> [koʊd] </t>
   </si>
   <si>
+    <t>usemap</t>
+  </si>
+  <si>
+    <t>/juz/</t>
+  </si>
+  <si>
+    <t>/mæp/</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ˈeriə/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ʃep/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/rɛk'tæŋgjəlɚ/</t>
+    </r>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/'pɑli/</t>
+    </r>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/'kænvəs/</t>
+    </r>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>/'fɪɡjɚ/</t>
+  </si>
+  <si>
+    <t>figcaption</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>/'ɑrtɪkl/</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <r>
+      <t>/'sɛkʃən/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>aside</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ə'saɪd/</t>
+    </r>
+  </si>
+  <si>
     <t>基本</t>
   </si>
   <si>
@@ -4094,6 +4240,9 @@
     <t xml:space="preserve"> [dɪsˈebəld]</t>
   </si>
   <si>
+    <t>radio</t>
+  </si>
+  <si>
     <t>checkbox</t>
   </si>
   <si>
@@ -4145,6 +4294,167 @@
     <t xml:space="preserve"> [riˈsɛt]</t>
   </si>
   <si>
+    <t>search</t>
+  </si>
+  <si>
+    <r>
+      <t>/sɝtʃ/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>/rendʒ/</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <r>
+      <t>/det/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>/ˈplesholdər/</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/'mʌltəpl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>autofocus</t>
+  </si>
+  <si>
+    <t>/,ɔto'fokəs/</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
+  </si>
+  <si>
+    <t>/kəm'plit/</t>
+  </si>
+  <si>
+    <t>optgroup</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ɑpt/</t>
+    </r>
+  </si>
+  <si>
+    <t>/ɡrup/</t>
+  </si>
+  <si>
+    <t>fieldset</t>
+  </si>
+  <si>
+    <r>
+      <t>/fild/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>/sɛt/</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/'lɛdʒənd/</t>
+    </r>
+  </si>
+  <si>
+    <t>datalist</t>
+  </si>
+  <si>
+    <t>/'detə/</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/lɪst/</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> [ɪˈtælɪk, aɪˈtæl-]</t>
   </si>
   <si>
@@ -4269,17 +4579,19 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˈmidiə]</t>
-  </si>
-  <si>
-    <t>radio</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4305,33 +4617,39 @@
       <sz val="10.5"/>
       <color rgb="FFA0A0A0"/>
       <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA0A0A0"/>
       <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4344,13 +4662,13 @@
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4363,7 +4681,7 @@
       <sz val="11"/>
       <color rgb="FF646464"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -4375,13 +4693,157 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4409,31 +4871,16 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4446,8 +4893,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4455,9 +5088,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4480,10 +5355,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4495,28 +5370,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4525,47 +5403,62 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4581,9 +5474,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4841,221 +5731,221 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
+    <col min="4" max="4" width="13.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:9">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F12" t="s">
@@ -5064,30 +5954,30 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:15">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
         <v>55</v>
       </c>
       <c r="N13" t="s">
@@ -5097,14 +5987,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:9">
       <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F14" t="s">
@@ -5113,39 +6003,39 @@
       <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:14">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:9">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -5155,7 +6045,7 @@
       <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F16" t="s">
@@ -5164,29 +6054,29 @@
       <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:15">
       <c r="A17" t="s">
         <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
         <v>84</v>
       </c>
       <c r="N17" t="s">
@@ -5196,11 +6086,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F18" t="s">
@@ -5209,39 +6099,39 @@
       <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:12">
       <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="16"/>
       <c r="L19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F20" t="s">
@@ -5250,44 +6140,44 @@
       <c r="G20" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:16">
       <c r="A21" t="s">
         <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="N21" s="14" t="s">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="N21" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F22" t="s">
@@ -5296,39 +6186,39 @@
       <c r="G22" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:9">
       <c r="A24" t="s">
         <v>118</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F24" t="s">
@@ -5337,78 +6227,78 @@
       <c r="G24" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:12">
       <c r="A25" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:13">
       <c r="A26" t="s">
         <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="20" t="s">
         <v>136</v>
       </c>
       <c r="M26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:9">
       <c r="A27" t="s">
         <v>137</v>
       </c>
       <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:9">
       <c r="A28" t="s">
         <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F28" t="s">
@@ -5417,32 +6307,32 @@
       <c r="G28" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" t="s">
         <v>148</v>
       </c>
       <c r="B29" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:9">
       <c r="A30" t="s">
         <v>151</v>
       </c>
       <c r="B30" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>153</v>
       </c>
       <c r="F30" t="s">
@@ -5451,35 +6341,35 @@
       <c r="G30" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:13">
       <c r="A31" t="s">
         <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>160</v>
       </c>
       <c r="M31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:9">
       <c r="A32" t="s">
         <v>161</v>
       </c>
       <c r="B32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F32" t="s">
@@ -5488,88 +6378,88 @@
       <c r="G32" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:15">
       <c r="A33" t="s">
         <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N33" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:9">
       <c r="A34" t="s">
         <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="16" t="s">
         <v>185</v>
       </c>
       <c r="L35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="15"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
@@ -5579,43 +6469,43 @@
       <c r="G36" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" customHeight="1" spans="1:14">
+      <c r="A37" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="16" t="s">
         <v>185</v>
       </c>
       <c r="N37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F38" t="s">
@@ -5624,37 +6514,37 @@
       <c r="G38" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="40" customHeight="1" spans="1:16">
+      <c r="A40" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="8" t="s">
         <v>209</v>
       </c>
       <c r="F40" t="s">
@@ -5663,46 +6553,46 @@
       <c r="G40" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="16" t="s">
         <v>215</v>
       </c>
       <c r="P40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="15">
         <v>0</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F42" t="s">
@@ -5711,45 +6601,45 @@
       <c r="G42" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" customHeight="1" spans="1:13">
+      <c r="A43" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="16"/>
+      <c r="K43" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="L43" s="14"/>
+      <c r="L43" s="16"/>
       <c r="M43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="44" customHeight="1" spans="1:11">
+      <c r="A44" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F44" t="s">
@@ -5758,36 +6648,36 @@
       <c r="G44" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:11">
       <c r="A46" t="s">
         <v>241</v>
       </c>
       <c r="B46" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F46" t="s">
@@ -5796,35 +6686,35 @@
       <c r="G46" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
         <v>248</v>
       </c>
       <c r="B47" t="s">
         <v>249</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:9">
       <c r="A48" t="s">
         <v>251</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F48" t="s">
@@ -5833,21 +6723,21 @@
       <c r="G48" t="s">
         <v>255</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:12">
       <c r="A49" t="s">
         <v>258</v>
       </c>
       <c r="B49" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>260</v>
       </c>
       <c r="I49" t="s">
@@ -5857,14 +6747,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:10">
       <c r="A50" t="s">
         <v>262</v>
       </c>
       <c r="B50" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>264</v>
       </c>
       <c r="F50" t="s">
@@ -5873,36 +6763,36 @@
       <c r="G50" t="s">
         <v>266</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="9" t="s">
         <v>267</v>
       </c>
       <c r="J50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:12">
       <c r="A51" t="s">
         <v>269</v>
       </c>
       <c r="B51" t="s">
         <v>270</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>271</v>
       </c>
       <c r="L51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="16" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="18" t="s">
         <v>273</v>
       </c>
       <c r="F52" t="s">
@@ -5911,34 +6801,34 @@
       <c r="G52" t="s">
         <v>275</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+    <row r="53" customHeight="1" spans="1:12">
+      <c r="A53" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="16" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="18" t="s">
         <v>279</v>
       </c>
       <c r="L53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:9">
       <c r="A54" t="s">
         <v>280</v>
       </c>
       <c r="B54" t="s">
         <v>281</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>282</v>
       </c>
       <c r="F54" t="s">
@@ -5947,89 +6837,89 @@
       <c r="G54" t="s">
         <v>284</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="55" customHeight="1" spans="1:12">
+      <c r="A55" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="16" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="18" t="s">
         <v>289</v>
       </c>
       <c r="L55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" t="s">
         <v>290</v>
       </c>
       <c r="B56" t="s">
         <v>291</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" t="s">
         <v>297</v>
       </c>
       <c r="B58" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+    <row r="59" ht="13.5" spans="1:4">
+      <c r="A59" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="16" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+    <row r="60" customHeight="1" spans="1:12">
+      <c r="A60" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="16" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="18" t="s">
         <v>306</v>
       </c>
       <c r="F60" t="s">
@@ -6038,7 +6928,7 @@
       <c r="G60" t="s">
         <v>118</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="9" t="s">
         <v>308</v>
       </c>
       <c r="I60" t="s">
@@ -6048,26 +6938,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="16" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:12">
       <c r="A62" t="s">
         <v>313</v>
       </c>
       <c r="B62" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>315</v>
       </c>
       <c r="F62" t="s">
@@ -6076,7 +6966,7 @@
       <c r="G62" t="s">
         <v>317</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="9" t="s">
         <v>318</v>
       </c>
       <c r="I62" t="s">
@@ -6086,25 +6976,25 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:4">
       <c r="A63" t="s">
         <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>322</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:12">
       <c r="A64" t="s">
         <v>324</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F64" t="s">
@@ -6113,7 +7003,7 @@
       <c r="G64" t="s">
         <v>327</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="9" t="s">
         <v>328</v>
       </c>
       <c r="J64" t="s">
@@ -6123,25 +7013,25 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
         <v>331</v>
       </c>
       <c r="B65" t="s">
         <v>332</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:10">
       <c r="A66" t="s">
         <v>334</v>
       </c>
       <c r="B66" t="s">
         <v>335</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F66" t="s">
@@ -6150,32 +7040,32 @@
       <c r="G66" t="s">
         <v>338</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="9" t="s">
         <v>339</v>
       </c>
       <c r="J66" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:4">
       <c r="A67" t="s">
         <v>340</v>
       </c>
       <c r="B67" t="s">
         <v>341</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:9">
       <c r="A68" t="s">
         <v>343</v>
       </c>
       <c r="B68" t="s">
         <v>344</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F68" t="s">
@@ -6184,32 +7074,32 @@
       <c r="G68" t="s">
         <v>347</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="9" t="s">
         <v>348</v>
       </c>
       <c r="I68" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:4">
       <c r="A69" t="s">
         <v>349</v>
       </c>
       <c r="B69" t="s">
         <v>350</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:9">
       <c r="A70" t="s">
         <v>352</v>
       </c>
       <c r="B70" t="s">
         <v>353</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F70" t="s">
@@ -6218,32 +7108,32 @@
       <c r="G70" t="s">
         <v>356</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="9" t="s">
         <v>357</v>
       </c>
       <c r="I70" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:4">
       <c r="A71" t="s">
         <v>358</v>
       </c>
       <c r="B71" t="s">
         <v>359</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:9">
       <c r="A72" t="s">
         <v>361</v>
       </c>
       <c r="B72" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>363</v>
       </c>
       <c r="F72" t="s">
@@ -6252,32 +7142,32 @@
       <c r="G72" t="s">
         <v>364</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="9" t="s">
         <v>365</v>
       </c>
       <c r="I72" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
         <v>366</v>
       </c>
       <c r="B73" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:12">
       <c r="A74" t="s">
         <v>369</v>
       </c>
       <c r="B74" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>371</v>
       </c>
       <c r="F74" t="s">
@@ -6286,32 +7176,32 @@
       <c r="G74" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="9" t="s">
         <v>373</v>
       </c>
       <c r="L74" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
         <v>374</v>
       </c>
       <c r="B75" t="s">
         <v>375</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:12">
       <c r="A76" t="s">
         <v>377</v>
       </c>
       <c r="B76" t="s">
         <v>378</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="7" t="s">
         <v>379</v>
       </c>
       <c r="F76" t="s">
@@ -6320,7 +7210,7 @@
       <c r="G76" t="s">
         <v>381</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="9" t="s">
         <v>382</v>
       </c>
       <c r="I76" t="s">
@@ -6333,25 +7223,25 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:4">
       <c r="A77" t="s">
         <v>385</v>
       </c>
       <c r="B77" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" customHeight="1" spans="1:12">
       <c r="A78" t="s">
         <v>388</v>
       </c>
       <c r="B78" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>390</v>
       </c>
       <c r="F78" t="s">
@@ -6360,7 +7250,7 @@
       <c r="G78" t="s">
         <v>392</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="9" t="s">
         <v>393</v>
       </c>
       <c r="I78" t="s">
@@ -6373,25 +7263,25 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" customHeight="1" spans="1:4">
       <c r="A79" t="s">
         <v>396</v>
       </c>
       <c r="B79" t="s">
         <v>397</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" customHeight="1" spans="1:9">
       <c r="A80" t="s">
         <v>399</v>
       </c>
       <c r="B80" t="s">
         <v>400</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>401</v>
       </c>
       <c r="F80" t="s">
@@ -6400,35 +7290,35 @@
       <c r="G80" t="s">
         <v>403</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="20" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" customHeight="1" spans="1:9">
       <c r="A81" t="s">
         <v>406</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I81" s="20" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" customHeight="1" spans="1:9">
       <c r="A82" t="s">
         <v>409</v>
       </c>
       <c r="B82" t="s">
         <v>410</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>411</v>
       </c>
       <c r="F82" t="s">
@@ -6437,32 +7327,32 @@
       <c r="G82" t="s">
         <v>413</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="I82" s="18" t="s">
+      <c r="I82" s="20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" customHeight="1" spans="1:4">
       <c r="A83" t="s">
         <v>416</v>
       </c>
       <c r="B83" t="s">
         <v>417</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" customHeight="1" spans="1:9">
       <c r="A84" t="s">
         <v>419</v>
       </c>
       <c r="B84" t="s">
         <v>420</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="7" t="s">
         <v>421</v>
       </c>
       <c r="F84" t="s">
@@ -6471,35 +7361,35 @@
       <c r="G84" t="s">
         <v>422</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="9" t="s">
         <v>423</v>
       </c>
       <c r="I84" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" customHeight="1" spans="1:9">
       <c r="A85" t="s">
         <v>425</v>
       </c>
       <c r="B85" t="s">
         <v>426</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" customHeight="1" spans="1:9">
       <c r="A86" t="s">
         <v>429</v>
       </c>
       <c r="B86" t="s">
         <v>430</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F86" t="s">
@@ -6508,35 +7398,35 @@
       <c r="G86" t="s">
         <v>433</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="9" t="s">
         <v>434</v>
       </c>
       <c r="I86" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" customHeight="1" spans="1:9">
       <c r="A87" t="s">
         <v>436</v>
       </c>
       <c r="B87" t="s">
         <v>437</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="20" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" customHeight="1" spans="1:9">
       <c r="A88" t="s">
         <v>440</v>
       </c>
       <c r="B88" t="s">
         <v>441</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>442</v>
       </c>
       <c r="F88" t="s">
@@ -6545,35 +7435,35 @@
       <c r="G88" t="s">
         <v>444</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" customHeight="1" spans="1:9">
       <c r="A89" t="s">
         <v>447</v>
       </c>
       <c r="B89" t="s">
         <v>448</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="I89" s="18" t="s">
+      <c r="I89" s="20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" customHeight="1" spans="1:9">
       <c r="A90" t="s">
         <v>451</v>
       </c>
       <c r="B90" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>453</v>
       </c>
       <c r="F90" t="s">
@@ -6582,35 +7472,35 @@
       <c r="G90" t="s">
         <v>455</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="I90" s="18" t="s">
+      <c r="I90" s="20" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" customHeight="1" spans="1:9">
       <c r="A91" t="s">
         <v>458</v>
       </c>
       <c r="B91" t="s">
         <v>459</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="I91" s="18" t="s">
+      <c r="I91" s="20" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" customHeight="1" spans="1:9">
       <c r="A92" t="s">
         <v>462</v>
       </c>
       <c r="B92" t="s">
         <v>410</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>463</v>
       </c>
       <c r="F92" t="s">
@@ -6619,35 +7509,35 @@
       <c r="G92" t="s">
         <v>465</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="I92" s="18" t="s">
+      <c r="I92" s="20" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" customHeight="1" spans="1:9">
       <c r="A93" t="s">
         <v>468</v>
       </c>
       <c r="B93" t="s">
         <v>469</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>470</v>
       </c>
       <c r="I93" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" customHeight="1" spans="1:9">
       <c r="A94" t="s">
         <v>472</v>
       </c>
       <c r="B94" t="s">
         <v>473</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>474</v>
       </c>
       <c r="F94" t="s">
@@ -6656,14 +7546,14 @@
       <c r="G94" t="s">
         <v>476</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="I94" s="18" t="s">
+      <c r="I94" s="20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" customHeight="1" spans="1:9">
       <c r="A95" t="s">
         <v>479</v>
       </c>
@@ -6674,14 +7564,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" customHeight="1" spans="1:9">
       <c r="A96" t="s">
         <v>482</v>
       </c>
       <c r="B96" t="s">
         <v>483</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>484</v>
       </c>
       <c r="F96" t="s">
@@ -6690,35 +7580,35 @@
       <c r="G96" t="s">
         <v>486</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="I96" s="18" t="s">
+      <c r="I96" s="20" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" customHeight="1" spans="1:9">
       <c r="A97" t="s">
         <v>489</v>
       </c>
       <c r="B97" t="s">
         <v>490</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="I97" s="18" t="s">
+      <c r="I97" s="20" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" customHeight="1" spans="1:9">
       <c r="A98" t="s">
         <v>493</v>
       </c>
       <c r="B98" t="s">
         <v>494</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>495</v>
       </c>
       <c r="F98" t="s">
@@ -6727,35 +7617,35 @@
       <c r="G98" t="s">
         <v>497</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I98" s="18" t="s">
+      <c r="I98" s="20" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" customHeight="1" spans="1:16">
       <c r="A99" t="s">
         <v>500</v>
       </c>
       <c r="B99" t="s">
         <v>501</v>
       </c>
-      <c r="I99" s="18" t="s">
+      <c r="I99" s="20" t="s">
         <v>502</v>
       </c>
       <c r="P99" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" customHeight="1" spans="1:9">
       <c r="A100" t="s">
         <v>504</v>
       </c>
       <c r="B100" t="s">
         <v>505</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>506</v>
       </c>
       <c r="F100" t="s">
@@ -6764,35 +7654,35 @@
       <c r="G100" t="s">
         <v>201</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="I100" s="18" t="s">
+      <c r="I100" s="20" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" customHeight="1" spans="1:9">
       <c r="A101" t="s">
         <v>509</v>
       </c>
       <c r="B101" t="s">
         <v>510</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="I101" s="18" t="s">
+      <c r="I101" s="20" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" customHeight="1" spans="1:9">
       <c r="A102" t="s">
         <v>513</v>
       </c>
       <c r="B102" t="s">
         <v>514</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>515</v>
       </c>
       <c r="F102" t="s">
@@ -6801,35 +7691,35 @@
       <c r="G102" t="s">
         <v>517</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="I102" s="18" t="s">
+      <c r="I102" s="20" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" customHeight="1" spans="1:9">
       <c r="A103" t="s">
         <v>520</v>
       </c>
       <c r="B103" t="s">
         <v>521</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="I103" s="18" t="s">
+      <c r="I103" s="20" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" customHeight="1" spans="1:9">
       <c r="A104" t="s">
         <v>524</v>
       </c>
       <c r="B104" t="s">
         <v>525</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>526</v>
       </c>
       <c r="F104" t="s">
@@ -6838,35 +7728,35 @@
       <c r="G104" t="s">
         <v>527</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I104" s="18" t="s">
+      <c r="I104" s="20" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" customHeight="1" spans="1:9">
       <c r="A105" t="s">
         <v>530</v>
       </c>
       <c r="B105" t="s">
         <v>531</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="I105" s="18" t="s">
+      <c r="I105" s="20" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" customHeight="1" spans="1:9">
       <c r="A106" t="s">
         <v>534</v>
       </c>
       <c r="B106" t="s">
         <v>535</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
         <v>536</v>
       </c>
       <c r="F106" t="s">
@@ -6875,410 +7765,410 @@
       <c r="G106" t="s">
         <v>538</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="I106" s="18" t="s">
+      <c r="I106" s="20" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" customHeight="1" spans="1:9">
       <c r="A107" t="s">
         <v>541</v>
       </c>
       <c r="B107" t="s">
         <v>542</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="20" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
         <v>545</v>
       </c>
       <c r="B108" t="s">
         <v>546</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
         <v>548</v>
       </c>
       <c r="B109" t="s">
         <v>549</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" customHeight="1" spans="1:4">
       <c r="A110" t="s">
         <v>551</v>
       </c>
       <c r="B110" t="s">
         <v>552</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" customHeight="1" spans="1:4">
       <c r="A111" t="s">
         <v>554</v>
       </c>
       <c r="B111" t="s">
         <v>555</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" customHeight="1" spans="1:4">
       <c r="A112" t="s">
         <v>557</v>
       </c>
       <c r="B112" t="s">
         <v>558</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" customHeight="1" spans="1:4">
       <c r="A113" t="s">
         <v>560</v>
       </c>
       <c r="B113" t="s">
         <v>561</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" customHeight="1" spans="1:4">
       <c r="A114" t="s">
         <v>563</v>
       </c>
       <c r="B114" t="s">
         <v>564</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" customHeight="1" spans="1:4">
       <c r="A115" t="s">
         <v>566</v>
       </c>
       <c r="B115" t="s">
         <v>567</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" customHeight="1" spans="1:4">
       <c r="A116" t="s">
         <v>569</v>
       </c>
       <c r="B116" t="s">
         <v>570</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" customHeight="1" spans="1:4">
       <c r="A117" t="s">
         <v>572</v>
       </c>
       <c r="B117" t="s">
         <v>573</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" customHeight="1" spans="1:4">
       <c r="A118" t="s">
         <v>575</v>
       </c>
       <c r="B118" t="s">
         <v>576</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" customHeight="1" spans="1:4">
       <c r="A119" t="s">
         <v>578</v>
       </c>
       <c r="B119" t="s">
         <v>579</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" customHeight="1" spans="1:4">
       <c r="A120" t="s">
         <v>581</v>
       </c>
       <c r="B120" t="s">
         <v>582</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
         <v>584</v>
       </c>
       <c r="B121" t="s">
         <v>585</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
         <v>587</v>
       </c>
       <c r="B122" t="s">
         <v>588</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" customHeight="1" spans="1:4">
       <c r="A123" t="s">
         <v>590</v>
       </c>
       <c r="B123" t="s">
         <v>591</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="7" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" customHeight="1" spans="1:4">
       <c r="A124" t="s">
         <v>593</v>
       </c>
       <c r="B124" t="s">
         <v>594</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="7" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" customHeight="1" spans="1:4">
       <c r="A125" t="s">
         <v>596</v>
       </c>
       <c r="B125" t="s">
         <v>597</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" customHeight="1" spans="1:4">
       <c r="A126" t="s">
         <v>599</v>
       </c>
       <c r="B126" t="s">
         <v>600</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" customHeight="1" spans="1:4">
       <c r="A127" t="s">
         <v>602</v>
       </c>
       <c r="B127" t="s">
         <v>603</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" customHeight="1" spans="1:4">
       <c r="A128" t="s">
         <v>605</v>
       </c>
       <c r="B128" t="s">
         <v>606</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" customHeight="1" spans="1:4">
       <c r="A129" t="s">
         <v>608</v>
       </c>
       <c r="B129" t="s">
         <v>609</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" customHeight="1" spans="1:4">
       <c r="A130" t="s">
         <v>611</v>
       </c>
       <c r="B130" t="s">
         <v>612</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
         <v>614</v>
       </c>
       <c r="B131" t="s">
         <v>615</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
         <v>617</v>
       </c>
       <c r="B132" t="s">
         <v>618</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
         <v>620</v>
       </c>
       <c r="B133" t="s">
         <v>621</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
         <v>623</v>
       </c>
       <c r="B134" t="s">
         <v>624</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
         <v>626</v>
       </c>
       <c r="B135" t="s">
         <v>627</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="7" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" customHeight="1" spans="1:4">
       <c r="A136" t="s">
         <v>629</v>
       </c>
       <c r="B136" t="s">
         <v>630</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" customHeight="1" spans="1:4">
       <c r="A137" t="s">
         <v>632</v>
       </c>
       <c r="B137" t="s">
         <v>633</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" customHeight="1" spans="1:4">
       <c r="A138" t="s">
         <v>635</v>
       </c>
       <c r="B138" t="s">
         <v>636</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="7" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" customHeight="1" spans="1:4">
       <c r="A139" t="s">
         <v>638</v>
       </c>
       <c r="B139" t="s">
         <v>332</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="7" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
         <v>640</v>
       </c>
       <c r="B140" t="s">
         <v>641</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" customHeight="1" spans="1:4">
       <c r="A141" t="s">
         <v>643</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" customHeight="1" spans="1:4">
       <c r="A142" t="s">
         <v>645</v>
       </c>
       <c r="B142" t="s">
         <v>344</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" customHeight="1" spans="1:2">
       <c r="A143" t="s">
         <v>646</v>
       </c>
@@ -7286,287 +8176,287 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" customHeight="1" spans="1:4">
       <c r="A144" t="s">
         <v>648</v>
       </c>
       <c r="B144" t="s">
         <v>649</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="7" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" customHeight="1" spans="1:4">
       <c r="A145" t="s">
         <v>651</v>
       </c>
       <c r="B145" t="s">
         <v>652</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" customHeight="1" spans="1:4">
       <c r="A146" t="s">
         <v>654</v>
       </c>
       <c r="B146" t="s">
         <v>655</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" customHeight="1" spans="1:4">
       <c r="A147" t="s">
         <v>657</v>
       </c>
       <c r="B147" t="s">
         <v>658</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" customHeight="1" spans="1:4">
       <c r="A148" t="s">
         <v>660</v>
       </c>
       <c r="B148" t="s">
         <v>661</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" customHeight="1" spans="1:4">
       <c r="A149" t="s">
         <v>663</v>
       </c>
       <c r="B149" t="s">
         <v>664</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="7" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" customHeight="1" spans="1:4">
       <c r="A150" t="s">
         <v>381</v>
       </c>
       <c r="B150" t="s">
         <v>666</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="7" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" customHeight="1" spans="1:4">
       <c r="A151" t="s">
         <v>485</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="7" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" customHeight="1" spans="1:4">
       <c r="A152" t="s">
         <v>669</v>
       </c>
       <c r="B152" t="s">
         <v>670</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" customHeight="1" spans="1:4">
       <c r="A153" t="s">
         <v>672</v>
       </c>
       <c r="B153" t="s">
         <v>673</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="7" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" customHeight="1" spans="1:4">
       <c r="A154" t="s">
         <v>675</v>
       </c>
       <c r="B154" t="s">
         <v>676</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" customHeight="1" spans="1:4">
       <c r="A155" t="s">
         <v>678</v>
       </c>
       <c r="B155" t="s">
         <v>679</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="7" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" customHeight="1" spans="1:4">
       <c r="A156" t="s">
         <v>681</v>
       </c>
       <c r="B156" t="s">
         <v>682</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="7" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" customHeight="1" spans="1:4">
       <c r="A157" t="s">
         <v>254</v>
       </c>
       <c r="B157" t="s">
         <v>684</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" customHeight="1" spans="1:4">
       <c r="A158" t="s">
         <v>244</v>
       </c>
       <c r="B158" t="s">
         <v>686</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" customHeight="1" spans="1:4">
       <c r="A159" t="s">
         <v>317</v>
       </c>
       <c r="B159" t="s">
         <v>688</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="7" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" customHeight="1" spans="1:4">
       <c r="A160" t="s">
         <v>690</v>
       </c>
       <c r="B160" t="s">
         <v>691</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="7" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" customHeight="1" spans="1:4">
       <c r="A161" t="s">
         <v>693</v>
       </c>
       <c r="B161" t="s">
         <v>694</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="7" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" customHeight="1" spans="1:4">
       <c r="A162" t="s">
         <v>696</v>
       </c>
       <c r="B162" t="s">
         <v>697</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" customHeight="1" spans="1:4">
       <c r="A163" t="s">
         <v>699</v>
       </c>
       <c r="B163" t="s">
         <v>700</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="7" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" customHeight="1" spans="1:4">
       <c r="A164" t="s">
         <v>702</v>
       </c>
       <c r="B164" t="s">
         <v>703</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" customHeight="1" spans="1:4">
       <c r="A165" t="s">
         <v>705</v>
       </c>
       <c r="B165" t="s">
         <v>706</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="7" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" customHeight="1" spans="1:4">
       <c r="A166" t="s">
         <v>497</v>
       </c>
       <c r="B166" t="s">
         <v>708</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" customHeight="1" spans="1:4">
       <c r="A167" t="s">
         <v>710</v>
       </c>
       <c r="B167" t="s">
         <v>711</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" customHeight="1" spans="1:1">
       <c r="A168" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" customHeight="1" spans="1:4">
       <c r="A169" t="s">
         <v>714</v>
       </c>
       <c r="B169" t="s">
         <v>715</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="7" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" customHeight="1" spans="1:3">
       <c r="A170" t="s">
         <v>717</v>
       </c>
@@ -7574,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" customHeight="1" spans="1:3">
       <c r="A171" t="s">
         <v>718</v>
       </c>
@@ -7582,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" customHeight="1" spans="1:3">
       <c r="A172" t="s">
         <v>719</v>
       </c>
@@ -7590,160 +8480,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" customHeight="1" spans="1:4">
       <c r="A173" t="s">
         <v>720</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="7" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" customHeight="1" spans="1:4">
       <c r="A174" t="s">
         <v>722</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="7" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" customHeight="1" spans="1:4">
       <c r="A175" t="s">
         <v>724</v>
       </c>
       <c r="B175" t="s">
         <v>725</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="7" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" customHeight="1" spans="1:4">
       <c r="A176" t="s">
         <v>727</v>
       </c>
       <c r="B176" t="s">
         <v>728</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D176" s="7" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" customHeight="1" spans="1:4">
       <c r="A177" t="s">
         <v>730</v>
       </c>
       <c r="B177" t="s">
         <v>731</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="7" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" customHeight="1" spans="1:4">
       <c r="A178" t="s">
         <v>733</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" customHeight="1" spans="1:4">
       <c r="A179" t="s">
         <v>735</v>
       </c>
       <c r="B179" t="s">
         <v>736</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" customHeight="1" spans="1:4">
       <c r="A180" t="s">
         <v>738</v>
       </c>
       <c r="B180" t="s">
         <v>739</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D180" s="7" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" customHeight="1" spans="1:4">
       <c r="A181" t="s">
         <v>741</v>
       </c>
       <c r="B181" t="s">
         <v>742</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="7" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" customHeight="1" spans="1:4">
       <c r="A182" t="s">
         <v>744</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" customHeight="1" spans="1:4">
       <c r="A183" t="s">
         <v>746</v>
       </c>
       <c r="B183" t="s">
         <v>747</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="7" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" customHeight="1" spans="1:1">
       <c r="A184" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" customHeight="1" spans="1:4">
       <c r="A185" t="s">
         <v>750</v>
       </c>
       <c r="B185" t="s">
         <v>609</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" customHeight="1" spans="1:4">
       <c r="A186" t="s">
         <v>752</v>
       </c>
       <c r="B186" t="s">
         <v>753</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="7" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" customHeight="1" spans="1:4">
       <c r="A187" t="s">
         <v>755</v>
       </c>
       <c r="B187" t="s">
         <v>756</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="7" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" customHeight="1" spans="1:3">
       <c r="A188" t="s">
         <v>758</v>
       </c>
@@ -7751,29 +8641,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" customHeight="1" spans="1:4">
       <c r="A189" t="s">
         <v>759</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" customHeight="1" spans="1:4">
       <c r="A190" t="s">
         <v>761</v>
       </c>
       <c r="B190" t="s">
         <v>762</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D190" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" customHeight="1" spans="1:3">
       <c r="A191" t="s">
         <v>764</v>
       </c>
@@ -7781,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" customHeight="1" spans="1:2">
       <c r="A192" t="s">
         <v>765</v>
       </c>
@@ -7789,51 +8679,51 @@
         <v>766</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" customHeight="1" spans="1:4">
       <c r="A193" t="s">
         <v>767</v>
       </c>
       <c r="B193" t="s">
         <v>768</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" customHeight="1" spans="1:4">
       <c r="A194" t="s">
         <v>770</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="7" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" customHeight="1" spans="1:4">
       <c r="A196" t="s">
         <v>772</v>
       </c>
       <c r="B196" t="s">
         <v>773</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="7" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" customHeight="1" spans="1:4">
       <c r="A197" t="s">
         <v>775</v>
       </c>
       <c r="B197" t="s">
         <v>776</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="7" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" customHeight="1" spans="1:3">
       <c r="A198" t="s">
         <v>778</v>
       </c>
@@ -7841,7 +8731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" customHeight="1" spans="1:3">
       <c r="A199" t="s">
         <v>779</v>
       </c>
@@ -7849,25 +8739,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" customHeight="1" spans="1:4">
       <c r="A200" t="s">
         <v>780</v>
       </c>
       <c r="B200" t="s">
         <v>781</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" customHeight="1" spans="1:4">
       <c r="A201" t="s">
         <v>783</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="7" t="s">
         <v>784</v>
       </c>
     </row>
@@ -7876,27 +8766,28 @@
     <mergeCell ref="F5:S5"/>
     <mergeCell ref="F6:S6"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A12 A5:A9 A21:A27 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A27 A5:A9 A12 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
@@ -7906,7 +8797,7 @@
     <col min="10" max="10" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>785</v>
       </c>
@@ -7914,7 +8805,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="2:6">
       <c r="B3" s="3" t="s">
         <v>787</v>
       </c>
@@ -7928,8 +8819,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" customHeight="1" spans="2:6">
+      <c r="B4" s="2" t="s">
         <v>791</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -7939,7 +8830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>793</v>
       </c>
@@ -7950,7 +8841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -7961,7 +8852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="2" t="s">
         <v>796</v>
       </c>
@@ -7972,7 +8863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -7983,7 +8874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -7994,7 +8885,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>800</v>
       </c>
@@ -8008,7 +8899,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="2:5">
       <c r="B12" s="2" t="s">
         <v>752</v>
       </c>
@@ -8016,7 +8907,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="3" t="s">
         <v>755</v>
       </c>
@@ -8024,7 +8915,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="2:5">
       <c r="B14" s="2" t="s">
         <v>806</v>
       </c>
@@ -8032,7 +8923,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>761</v>
       </c>
@@ -8040,800 +8931,990 @@
         <v>808</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="2:2">
       <c r="B16" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="17" customHeight="1" spans="2:5">
+      <c r="B17" s="2" t="s">
         <v>809</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:5">
       <c r="B18" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="32" customHeight="1" spans="2:5">
+      <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="33" customHeight="1" spans="2:5">
+      <c r="B33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="34" customHeight="1" spans="2:5">
+      <c r="B34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="35" customHeight="1" spans="2:5">
+      <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="36" customHeight="1" spans="2:5">
+      <c r="B36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="37" customHeight="1" spans="2:5">
+      <c r="B37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="38" customHeight="1" spans="2:5">
+      <c r="B38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="39" customHeight="1" spans="2:5">
+      <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="40" customHeight="1" spans="2:5">
+      <c r="B40" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E27" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="E40" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:5">
+      <c r="B41" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C28">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="E41" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E30" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="E43" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:5">
+      <c r="B44" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C31">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="E44" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:5">
+      <c r="B45" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C32">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="E45" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:5">
+      <c r="B46" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C33">
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E35" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E36" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="E37" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="E38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="E46" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E48" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:5">
+      <c r="B49" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E49" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:5">
+      <c r="B50" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E50" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:5">
+      <c r="B51" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E51" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E40" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="E53" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:5">
+      <c r="B54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E41" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="E42" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="E43" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+      <c r="E54" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:5">
+      <c r="B55" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:5">
+      <c r="B56" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E56" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:5">
+      <c r="B57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E44" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+      <c r="E57" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:5">
+      <c r="B58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E45" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+      <c r="E58" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:5">
+      <c r="B59" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E46" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+      <c r="E59" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:5">
+      <c r="B60" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E60" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E48" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="E49" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+    <row r="61" customHeight="1" spans="2:5">
+      <c r="B61" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E61" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:5">
+      <c r="B62" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E62" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:5">
+      <c r="B63" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E50" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+      <c r="E63" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:5">
+      <c r="B64" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E51" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="E64" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E53" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="E54" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+      <c r="E66" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:5">
+      <c r="B67" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E67" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:5">
+      <c r="B68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E55" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+      <c r="E68" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:5">
+      <c r="B69" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E69" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:5">
+      <c r="B70" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E57" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+      <c r="E70" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:5">
+      <c r="B71" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C58">
+      <c r="C71">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+      <c r="E71" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:5">
+      <c r="B72" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E59" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="E61" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="E62" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E63" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="E64" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="E65" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="E66" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="22" t="s">
-        <v>922</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="E68" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="E69" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E70" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="E71" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>870</v>
       </c>
       <c r="E72" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
+    <row r="74" customHeight="1" spans="1:5">
+      <c r="A74" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E73" t="s">
+      <c r="B74" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
+      <c r="E74" t="s">
         <v>874</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="75" customHeight="1" spans="2:5">
+      <c r="B75" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
+      <c r="E75" t="s">
         <v>876</v>
       </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="76" customHeight="1" spans="2:5">
+      <c r="B76" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+      <c r="E76" t="s">
         <v>878</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" customHeight="1" spans="2:5">
+      <c r="B77" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="E77" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:5">
+      <c r="B78" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E78" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:5">
+      <c r="B79" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E79" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:3">
+      <c r="B80" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:5">
+      <c r="B81" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E81" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:5">
+      <c r="B82" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E82" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:5">
+      <c r="B83" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E83" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:5">
+      <c r="B84" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E84" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:5">
+      <c r="B85" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E85" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:5">
+      <c r="B86" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E86" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:5">
+      <c r="B87" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E87" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:5">
+      <c r="B88" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E88" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:5">
+      <c r="B89" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E89" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:5">
+      <c r="B90" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:5">
+      <c r="B91" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:5">
+      <c r="B92" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:5">
+      <c r="B93" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="2:5">
+      <c r="B94" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="2:5">
+      <c r="B95" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="2:5">
+      <c r="B96" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="2:5">
+      <c r="B97" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="2:5">
+      <c r="B98" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="2:5">
+      <c r="B99" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="2:5">
+      <c r="B100" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
+      <c r="A102" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E78" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
+      <c r="E102" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="2:5">
+      <c r="B103" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
+      <c r="E103" s="8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="2:5">
+      <c r="B104" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E80" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="E81" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
+      <c r="E104" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="2:5">
+      <c r="B105" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E105" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="2:5">
+      <c r="B106" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D83" t="s">
-        <v>887</v>
-      </c>
-      <c r="E83" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
+      <c r="E106" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="2:5">
+      <c r="B107" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D107" t="s">
+        <v>935</v>
+      </c>
+      <c r="E107" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="2:5">
+      <c r="B108" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E84" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+      <c r="E108" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:5">
+      <c r="B109" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E85" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
+      <c r="E109" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:5">
+      <c r="B110" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E86" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="E110" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
+      <c r="A112" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E88" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
+      <c r="E112" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:5">
+      <c r="B113" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E89" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
+      <c r="E113" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="2:5">
+      <c r="B114" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E90" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+      <c r="E114" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="2:5">
+      <c r="B115" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E91" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+      <c r="E115" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="2:5">
+      <c r="B116" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E92" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
+      <c r="E116" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="2:5">
+      <c r="B117" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E93" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="E117" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
+    <row r="120" customHeight="1" spans="2:5">
+      <c r="B120" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E96" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
+      <c r="E120" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:5">
+      <c r="B121" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="E97" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
+      <c r="E121" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="2:5">
+      <c r="B122" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="E98" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="E122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:5">
+      <c r="A124" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E100" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+      <c r="E124" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="2:5">
+      <c r="B125" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E101" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
+      <c r="E125" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="2:5">
+      <c r="B126" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E102" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
+      <c r="E126" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="2:5">
+      <c r="B127" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E103" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
+      <c r="E127" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:5">
+      <c r="B128" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E104" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="E106" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
+      <c r="E128" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E130" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:5">
+      <c r="B131" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E107" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
+      <c r="E131" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="2:5">
+      <c r="B132" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="E108" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
+      <c r="E132" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="2:5">
+      <c r="B133" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E109" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="E110" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="E133" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="2:5">
+      <c r="B134" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E134" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:5">
+      <c r="A136" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E112" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
+      <c r="E136" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:5">
+      <c r="B137" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E113" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
+      <c r="E137" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:5">
+      <c r="B138" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="E114" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
+      <c r="E138" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:5">
+      <c r="B139" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E115" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
+      <c r="E139" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:5">
+      <c r="B140" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E116" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
+      <c r="E140" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:5">
+      <c r="B141" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="E117" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="122" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
+      <c r="E141" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:2">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" customHeight="1" spans="2:2">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:2">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="146" customHeight="1" spans="2:5">
+      <c r="B146" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="E122" t="s">
-        <v>921</v>
+      <c r="E146" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B26 B28:B1048576">
+  <conditionalFormatting sqref="B1:B39 B41:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -2670,7 +2670,7 @@
     </r>
   </si>
   <si>
-    <t>在结尾读 ou</t>
+    <t>在结尾读 ue</t>
   </si>
   <si>
     <t>large</t>
@@ -3939,16 +3939,13 @@
   </si>
   <si>
     <r>
-      <t> </t>
-    </r>
-    <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/ˈeriə/</t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -3957,18 +3954,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>coords</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
+      <t>/ˈeriə/</t>
     </r>
     <r>
       <rPr>
@@ -3977,13 +3963,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/ʃep/</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -3991,14 +3980,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/rɛk'tæŋgjəlɚ/</t>
-    </r>
-  </si>
-  <si>
-    <t>poly</t>
-  </si>
-  <si>
-    <r>
       <t> </t>
     </r>
     <r>
@@ -4008,16 +3989,10 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/'pɑli/</t>
-    </r>
-  </si>
-  <si>
-    <t>canvas</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
+      <t>/ʃep/</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4025,30 +4000,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/'kænvəs/</t>
-    </r>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>/'fɪɡjɚ/</t>
-  </si>
-  <si>
-    <t>figcaption</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>/'ɑrtɪkl/</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <r>
-      <t>/'sɛkʃən/</t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -4057,16 +4009,13 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>aside</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
+      <t>/rɛk'tæŋgjəlɚ/</t>
+    </r>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4074,231 +4023,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/ə'saɪd/</t>
-    </r>
-  </si>
-  <si>
-    <t>基本</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [boʊθ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [trænsˈpærənt]</t>
-  </si>
-  <si>
-    <t>线</t>
-  </si>
-  <si>
-    <t>[ˈsɑ:lɪd]</t>
-  </si>
-  <si>
-    <t>[ˈdɑ:tɪd]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dæʃt] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈdʌbəl] </t>
-  </si>
-  <si>
-    <t>鼠标</t>
-  </si>
-  <si>
-    <t>cursor</t>
-  </si>
-  <si>
-    <t>[ˈkɜ:rsə(r)]</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dɪˈfɔlt] </t>
-  </si>
-  <si>
-    <t>crosshair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['krɔ:sher] </t>
-  </si>
-  <si>
-    <t>pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈpɔɪntɚ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [rɪ'vɜ:st] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dɪsk]</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈsɜ:rkl]</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>[skwer]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈdɛsəməl] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈli:dɪŋ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [roˈmɑŋ] </t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈloʊə(r)] </t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈʌpɚ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [pəˈzɪʃən]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [aʊtˈsaɪd, ˈaʊtˌsaɪd] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈkæpʃən] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">col </t>
-  </si>
-  <si>
-    <t>[kɑ:l]</t>
-  </si>
-  <si>
-    <t>[roʊ]</t>
-  </si>
-  <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[spæn] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[kəˈlæps] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['sepəreɪt] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈspesɪŋ] </t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>[ˈmɛθəd]</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈækʃən] </t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>[ˈleɪbl]</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈɪnˌpʊt]</t>
-  </si>
-  <si>
-    <t>readonly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [reɪ'dɒnlɪ]</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dɪsˈebəld]</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈtʃekbɑ:ks]</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ækˈsɛpt]</t>
-  </si>
-  <si>
-    <t>[ˈhɪdn:]</t>
-  </si>
-  <si>
-    <t>textarea</t>
-  </si>
-  <si>
-    <t>ˈeriə]</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [sɪ'lektɪd]</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈɑ:pʃn] </t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈbʌtn]</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [səbˈmɪt]</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [riˈsɛt]</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <r>
-      <t>/sɝtʃ/</t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -4307,22 +4032,13 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>/rendʒ/</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <r>
-      <t>/det/</t>
-    </r>
+      <t>/'pɑli/</t>
+    </r>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4332,20 +4048,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t>placeholder</t>
-  </si>
-  <si>
-    <t>/ˈplesholdər/</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4353,8 +4055,28 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/'mʌltəpl/</t>
-    </r>
+      <t>/'kænvəs/</t>
+    </r>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>/'fɪɡjɚ/</t>
+  </si>
+  <si>
+    <t>figcaption</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>/'ɑrtɪkl/</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4362,27 +4084,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>autofocus</t>
-  </si>
-  <si>
-    <t>/,ɔto'fokəs/</t>
-  </si>
-  <si>
-    <t>autocomplete</t>
-  </si>
-  <si>
-    <t>/kəm'plit/</t>
-  </si>
-  <si>
-    <t>optgroup</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
+      <t>/'sɛkʃən/</t>
     </r>
     <r>
       <rPr>
@@ -4391,19 +4093,13 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>/ɑpt/</t>
-    </r>
-  </si>
-  <si>
-    <t>/ɡrup/</t>
-  </si>
-  <si>
-    <t>fieldset</t>
-  </si>
-  <si>
-    <r>
-      <t>/fild/</t>
-    </r>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>aside</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4413,17 +4109,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t>/sɛt/</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4431,6 +4116,399 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>/ə'saɪd/</t>
+    </r>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [boʊθ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trænsˈpærənt]</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>[ˈsɑ:lɪd]</t>
+  </si>
+  <si>
+    <t>[ˈdɑ:tɪd]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dæʃt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdʌbəl] </t>
+  </si>
+  <si>
+    <t>鼠标</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>[ˈkɜ:rsə(r)]</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈfɔlt] </t>
+  </si>
+  <si>
+    <t>crosshair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['krɔ:sher] </t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɔɪntɚ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪ'vɜ:st] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪsk]</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɜ:rkl]</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>[skwer]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdɛsəməl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈli:dɪŋ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [roˈmɑŋ] </t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈloʊə(r)] </t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈʌpɚ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pəˈzɪʃən]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [aʊtˈsaɪd, ˈaʊtˌsaɪd] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkæpʃən] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">col </t>
+  </si>
+  <si>
+    <t>[kɑ:l]</t>
+  </si>
+  <si>
+    <t>[roʊ]</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[spæn] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kəˈlæps] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['sepəreɪt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈspesɪŋ] </t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>[ˈmɛθəd]</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈækʃən] </t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>[ˈleɪbl]</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪnˌpʊt]</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [reɪ'dɒnlɪ]</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪsˈebəld]</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtʃekbɑ:ks]</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ækˈsɛpt]</t>
+  </si>
+  <si>
+    <t>[ˈhɪdn:]</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>ˈeriə]</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɪ'lektɪd]</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈɑ:pʃn] </t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbʌtn]</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səbˈmɪt]</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [riˈsɛt]</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sɝtʃ/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>/rendʒ/</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/det/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>/ˈplesholdər/</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/'mʌltəpl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>autofocus</t>
+  </si>
+  <si>
+    <t>/,ɔto'fokəs/</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
+  </si>
+  <si>
+    <t>/kəm'plit/</t>
+  </si>
+  <si>
+    <t>optgroup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ɑpt/</t>
+    </r>
+  </si>
+  <si>
+    <t>/ɡrup/</t>
+  </si>
+  <si>
+    <t>fieldset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/fild/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>/sɛt/</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>/'lɛdʒənd/</t>
     </r>
   </si>
@@ -4442,6 +4520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -4586,12 +4670,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4665,6 +4749,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -4700,6 +4790,29 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4740,60 +4853,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4815,19 +4900,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4841,6 +4917,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4895,7 +4985,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4907,49 +5057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4967,19 +5081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4991,7 +5099,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5003,13 +5135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5021,61 +5159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5086,21 +5176,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5124,26 +5199,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5180,6 +5235,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -5194,10 +5284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5206,16 +5296,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5224,119 +5314,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5382,13 +5472,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -5397,13 +5490,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5739,8 +5832,8 @@
   <sheetPr/>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
@@ -5780,10 +5873,10 @@
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5800,14 +5893,14 @@
       <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5824,7 +5917,7 @@
       <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:19">
       <c r="A5" t="s">
@@ -5883,7 +5976,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -5893,6 +5986,7 @@
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
@@ -5957,7 +6051,7 @@
       <c r="H12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5971,13 +6065,13 @@
       <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
         <v>55</v>
       </c>
       <c r="N13" t="s">
@@ -6006,7 +6100,7 @@
       <c r="H14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6020,18 +6114,18 @@
       <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16" t="s">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6057,7 +6151,7 @@
       <c r="H16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6071,12 +6165,12 @@
       <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N17" t="s">
@@ -6116,16 +6210,16 @@
       <c r="D19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="17"/>
       <c r="L19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
@@ -6143,7 +6237,7 @@
       <c r="H20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6157,12 +6251,12 @@
       <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="N21" s="16" t="s">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="N21" s="17" t="s">
         <v>107</v>
       </c>
       <c r="P21" t="s">
@@ -6170,13 +6264,13 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="7" t="s">
         <v>110</v>
       </c>
@@ -6189,22 +6283,22 @@
       <c r="H22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="23" t="s">
         <v>117</v>
       </c>
       <c r="N23" t="s">
@@ -6230,7 +6324,7 @@
       <c r="H24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="21" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6244,7 +6338,7 @@
       <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="23" t="s">
         <v>128</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -6264,13 +6358,13 @@
       <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="21" t="s">
         <v>136</v>
       </c>
       <c r="M26" t="s">
@@ -6287,7 +6381,7 @@
       <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="17" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6310,7 +6404,7 @@
       <c r="H28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6344,7 +6438,7 @@
       <c r="H30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="21" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6381,7 +6475,7 @@
       <c r="H32" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="21" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6395,10 +6489,10 @@
       <c r="D33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="23" t="s">
         <v>172</v>
       </c>
       <c r="N33" t="s">
@@ -6421,31 +6515,31 @@
       <c r="F34" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="17" t="s">
         <v>178</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="17" t="s">
         <v>185</v>
       </c>
       <c r="L35" t="s">
@@ -6453,13 +6547,13 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
@@ -6472,25 +6566,25 @@
       <c r="H36" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:14">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="17" t="s">
         <v>185</v>
       </c>
       <c r="N37" t="s">
@@ -6498,13 +6592,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
         <v>199</v>
       </c>
@@ -6517,18 +6611,18 @@
       <c r="H38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="21" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
         <v>206</v>
       </c>
@@ -6537,13 +6631,13 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:16">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="8" t="s">
         <v>209</v>
       </c>
@@ -6556,13 +6650,13 @@
       <c r="H40" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="N40" s="17" t="s">
         <v>215</v>
       </c>
       <c r="P40" t="s">
@@ -6570,28 +6664,28 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="16">
         <v>0</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
         <v>221</v>
       </c>
@@ -6604,41 +6698,41 @@
       <c r="H42" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:13">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="17"/>
       <c r="M43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:11">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="7" t="s">
         <v>233</v>
       </c>
@@ -6654,18 +6748,18 @@
       <c r="I44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7" t="s">
         <v>240</v>
       </c>
@@ -6692,7 +6786,7 @@
       <c r="I46" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="17" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6785,14 +6879,14 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="19" t="s">
         <v>273</v>
       </c>
       <c r="F52" t="s">
@@ -6809,12 +6903,12 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:12">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="18" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19" t="s">
         <v>279</v>
       </c>
       <c r="L53" t="s">
@@ -6845,14 +6939,14 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:12">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="19" t="s">
         <v>289</v>
       </c>
       <c r="L55" t="s">
@@ -6874,14 +6968,14 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="19" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6900,26 +6994,26 @@
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:4">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="19" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="16"/>
+      <c r="D60" s="19" t="s">
         <v>306</v>
       </c>
       <c r="F60" t="s">
@@ -6939,14 +7033,14 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="16"/>
+      <c r="D61" s="19" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7293,7 +7387,7 @@
       <c r="H80" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="21" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7307,7 +7401,7 @@
       <c r="D81" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="21" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7330,7 +7424,7 @@
       <c r="H82" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="21" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7378,7 +7472,7 @@
       <c r="D85" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I85" s="21" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7415,7 +7509,7 @@
       <c r="D87" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="I87" s="20" t="s">
+      <c r="I87" s="21" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7438,7 +7532,7 @@
       <c r="H88" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I88" s="20" t="s">
+      <c r="I88" s="21" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7452,7 +7546,7 @@
       <c r="D89" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="21" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7475,7 +7569,7 @@
       <c r="H90" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="I90" s="20" t="s">
+      <c r="I90" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7489,7 +7583,7 @@
       <c r="D91" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="21" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7512,7 +7606,7 @@
       <c r="H92" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="I92" s="21" t="s">
         <v>467</v>
       </c>
     </row>
@@ -7549,7 +7643,7 @@
       <c r="H94" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="21" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7583,7 +7677,7 @@
       <c r="H96" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="21" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7597,7 +7691,7 @@
       <c r="D97" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="21" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7620,7 +7714,7 @@
       <c r="H98" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="21" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7631,7 +7725,7 @@
       <c r="B99" t="s">
         <v>501</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="21" t="s">
         <v>502</v>
       </c>
       <c r="P99" t="s">
@@ -7657,7 +7751,7 @@
       <c r="H100" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="I100" s="20" t="s">
+      <c r="I100" s="21" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7671,7 +7765,7 @@
       <c r="D101" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="I101" s="20" t="s">
+      <c r="I101" s="21" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7694,7 +7788,7 @@
       <c r="H102" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="21" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7708,7 +7802,7 @@
       <c r="D103" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="I103" s="20" t="s">
+      <c r="I103" s="21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -7731,7 +7825,7 @@
       <c r="H104" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="21" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7745,7 +7839,7 @@
       <c r="D105" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="I105" s="20" t="s">
+      <c r="I105" s="21" t="s">
         <v>533</v>
       </c>
     </row>
@@ -7768,7 +7862,7 @@
       <c r="H106" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="21" t="s">
         <v>540</v>
       </c>
     </row>
@@ -7782,7 +7876,7 @@
       <c r="D107" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="21" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8783,8 +8877,8 @@
   <sheetPr/>
   <dimension ref="A2:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" outlineLevelCol="5"/>
@@ -8889,7 +8983,7 @@
       <c r="A11" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>801</v>
       </c>
       <c r="E11" t="s">
@@ -8908,7 +9002,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>755</v>
       </c>
       <c r="E13" t="s">
@@ -8948,7 +9042,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:5">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>812</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -8956,12 +9050,12 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:5">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>815</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -8969,7 +9063,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:5">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>646</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -8977,7 +9071,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>818</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -8985,7 +9079,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>820</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -8993,7 +9087,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>822</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -9001,12 +9095,12 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>825</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -9014,7 +9108,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>827</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -9022,7 +9116,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:5">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>829</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -9495,7 +9589,7 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:5">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>903</v>
       </c>
       <c r="E90" s="6" t="s">
@@ -9503,7 +9597,7 @@
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:5">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>905</v>
       </c>
       <c r="E91" s="6" t="s">
@@ -9511,7 +9605,7 @@
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:5">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>907</v>
       </c>
       <c r="E92" s="6" t="s">
@@ -9519,7 +9613,7 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:5">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>909</v>
       </c>
       <c r="E93" s="6" t="s">
@@ -9527,7 +9621,7 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:5">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>911</v>
       </c>
       <c r="E94" s="6" t="s">
@@ -9535,7 +9629,7 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="2:5">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>913</v>
       </c>
       <c r="E95" s="6" t="s">
@@ -9543,7 +9637,7 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="2:5">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>915</v>
       </c>
       <c r="E96" s="6" t="s">
@@ -9551,7 +9645,7 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:5">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>917</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -9562,7 +9656,7 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:5">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>920</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -9573,7 +9667,7 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:5">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>923</v>
       </c>
       <c r="E99" s="6" t="s">
@@ -9581,7 +9675,7 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="2:5">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>925</v>
       </c>
       <c r="D100" s="6" t="s">

--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\css\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="13980" windowHeight="11625" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="990">
   <si>
     <t>hyper text</t>
   </si>
@@ -301,7 +306,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(i)</t>
     </r>
@@ -319,7 +324,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(i)</t>
     </r>
@@ -419,7 +424,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(I)</t>
     </r>
@@ -470,7 +475,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ɛ</t>
     </r>
@@ -490,7 +495,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>I</t>
     </r>
@@ -519,7 +524,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ei</t>
     </r>
@@ -654,7 +659,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -674,7 +679,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(a)</t>
     </r>
@@ -692,7 +697,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(r)</t>
     </r>
@@ -710,7 +715,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(a)</t>
     </r>
@@ -728,7 +733,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>a</t>
     </r>
@@ -746,7 +751,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>o</t>
     </r>
@@ -841,7 +846,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(ɔ)</t>
     </r>
@@ -859,7 +864,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>er</t>
     </r>
@@ -1024,7 +1029,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(o)</t>
     </r>
@@ -1089,7 +1094,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>u</t>
     </r>
@@ -1170,7 +1175,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1188,7 +1193,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1247,7 +1252,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(U)</t>
     </r>
@@ -1265,7 +1270,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>er</t>
     </r>
@@ -1321,7 +1326,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1339,7 +1344,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1421,7 +1426,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(ʌ)</t>
     </r>
@@ -1475,7 +1480,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ʌr</t>
     </r>
@@ -1524,7 +1529,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ər</t>
     </r>
@@ -1583,7 +1588,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ɪ</t>
     </r>
@@ -2133,7 +2138,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2151,7 +2156,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>s</t>
     </r>
@@ -2311,7 +2316,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>q</t>
     </r>
@@ -2349,7 +2354,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>q</t>
     </r>
@@ -2367,7 +2372,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2385,7 +2390,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2432,7 +2437,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>zhe</t>
     </r>
@@ -2450,7 +2455,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2581,7 +2586,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>eng</t>
     </r>
@@ -2599,7 +2604,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2655,7 +2660,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>l</t>
     </r>
@@ -2700,7 +2705,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(u)</t>
     </r>
@@ -2759,7 +2764,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -2797,7 +2802,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ye</t>
     </r>
@@ -2841,7 +2846,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>h</t>
     </r>
@@ -2900,7 +2905,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>w</t>
     </r>
@@ -3943,7 +3948,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -3952,7 +3957,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/ˈeriə/</t>
     </r>
@@ -3961,7 +3966,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -3978,7 +3983,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -3987,7 +3992,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/ʃep/</t>
     </r>
@@ -3998,7 +4003,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4007,7 +4012,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/rɛk'tæŋgjəlɚ/</t>
     </r>
@@ -4021,7 +4026,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4030,7 +4035,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/'pɑli/</t>
     </r>
@@ -4044,7 +4049,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4053,7 +4058,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/'kænvəs/</t>
     </r>
@@ -4082,7 +4087,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/'sɛkʃən/</t>
     </r>
@@ -4091,7 +4096,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4105,7 +4110,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4114,7 +4119,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/ə'saɪd/</t>
     </r>
@@ -4344,7 +4349,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/sɝtʃ/</t>
     </r>
@@ -4353,7 +4358,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4373,7 +4378,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/det/</t>
     </r>
@@ -4382,7 +4387,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4402,7 +4407,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4411,7 +4416,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/'mʌltəpl/</t>
     </r>
@@ -4420,7 +4425,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4446,7 +4451,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4455,7 +4460,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/ɑpt/</t>
     </r>
@@ -4472,7 +4477,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/fild/</t>
     </r>
@@ -4481,7 +4486,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4498,7 +4503,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4507,7 +4512,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/'lɛdʒənd/</t>
     </r>
@@ -4524,7 +4529,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -4533,7 +4538,7 @@
         <sz val="9.75"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/lɪst/</t>
     </r>
@@ -4638,44 +4643,122 @@
     <t>[ˈɔ:toʊ]</t>
   </si>
   <si>
+    <t xml:space="preserve"> [ˈæbsəˌlut]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈrɛlətɪv]</t>
+  </si>
+  <si>
+    <t>[ˈstætɪk]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [floʊt]</t>
+  </si>
+  <si>
+    <t>[ˌoʊvərˈfloʊ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvɪzəbəl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmidiə]</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pace</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/spes/</t>
+  </si>
+  <si>
+    <t>vertical</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'vɝtɪkl/ </t>
+  </si>
+  <si>
+    <t> /'mɪdl/</t>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>shadow</t>
-  </si>
-  <si>
-    <t>[ˈʃædoʊ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈæbsəˌlut]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈrɛlətɪv]</t>
-  </si>
-  <si>
-    <t>[ˈstætɪk]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [floʊt]</t>
-  </si>
-  <si>
-    <t>[ˌoʊvərˈfloʊ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈvɪzəbəl]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈmidiə]</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'ʃædo/</t>
+  </si>
+  <si>
+    <t>/dəˈrɛkʃən</t>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'junɪˌkod/</t>
+  </si>
+  <si>
+    <t>unicode</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/,ovɚ'raɪd/</t>
+  </si>
+  <si>
+    <t>/'raɪtɪŋ</t>
+  </si>
+  <si>
+    <t>writing</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'hɔrə'zɑntl/ </t>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /træns'fɔrm/</t>
+  </si>
+  <si>
+    <t>/'loɚ,kes/</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>override</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4701,39 +4784,39 @@
       <sz val="10.5"/>
       <color rgb="FFA0A0A0"/>
       <name val="Lucida Sans Unicode"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA0A0A0"/>
       <name val="Lucida Sans Unicode"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4746,19 +4829,19 @@
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4771,7 +4854,7 @@
       <sz val="11"/>
       <color rgb="FF646464"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -4783,157 +4866,13 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4961,16 +4900,31 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4985,192 +4939,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5178,255 +4952,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5466,9 +4998,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5499,59 +5028,50 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5567,6 +5087,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5824,19 +5347,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
@@ -5844,7 +5367,7 @@
     <col min="8" max="8" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5859,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5873,14 +5396,14 @@
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:14">
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5893,18 +5416,18 @@
       <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5917,9 +5440,9 @@
       <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:19">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5932,24 +5455,24 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:19">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5959,24 +5482,24 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -5986,9 +5509,9 @@
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5999,7 +5522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -6010,7 +5533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6021,7 +5544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -6032,7 +5555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6051,11 +5574,11 @@
       <c r="H12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
+    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -6065,13 +5588,13 @@
       <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
         <v>55</v>
       </c>
       <c r="N13" t="s">
@@ -6081,7 +5604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
+    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -6100,11 +5623,11 @@
       <c r="H14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:14">
+    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -6114,22 +5637,22 @@
       <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:9">
+    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -6151,11 +5674,11 @@
       <c r="H16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:15">
+    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -6165,12 +5688,12 @@
       <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
         <v>84</v>
       </c>
       <c r="N17" t="s">
@@ -6180,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6203,23 +5726,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
+    <row r="19" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="16"/>
       <c r="L19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
@@ -6237,11 +5760,11 @@
       <c r="H20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -6251,26 +5774,26 @@
       <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="N21" s="17" t="s">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="N21" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="7" t="s">
         <v>110</v>
       </c>
@@ -6283,29 +5806,29 @@
       <c r="H22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:9">
+    <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -6324,11 +5847,11 @@
       <c r="H24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
+    <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -6338,14 +5861,14 @@
       <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>128</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:13">
+    <row r="26" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6358,20 +5881,20 @@
       <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>136</v>
       </c>
       <c r="M26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -6381,11 +5904,11 @@
       <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:9">
+    <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -6404,11 +5927,11 @@
       <c r="H28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
+    <row r="29" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -6419,7 +5942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:9">
+    <row r="30" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -6438,11 +5961,11 @@
       <c r="H30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
+    <row r="31" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -6456,7 +5979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:9">
+    <row r="32" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -6475,11 +5998,11 @@
       <c r="H32" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:15">
+    <row r="33" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -6489,10 +6012,10 @@
       <c r="D33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N33" t="s">
@@ -6502,7 +6025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
+    <row r="34" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -6515,45 +6038,45 @@
       <c r="F34" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>185</v>
       </c>
       <c r="L35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
@@ -6566,39 +6089,39 @@
       <c r="H36" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:14">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="16" t="s">
         <v>185</v>
       </c>
       <c r="N37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="7" t="s">
         <v>199</v>
       </c>
@@ -6611,18 +6134,18 @@
       <c r="H38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="7" t="s">
         <v>206</v>
       </c>
@@ -6630,14 +6153,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:16">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="8" t="s">
         <v>209</v>
       </c>
@@ -6650,42 +6173,42 @@
       <c r="H40" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="N40" s="17" t="s">
+      <c r="N40" s="16" t="s">
         <v>215</v>
       </c>
       <c r="P40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>0</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="7" t="s">
         <v>221</v>
       </c>
@@ -6698,41 +6221,41 @@
       <c r="H42" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:13">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17" t="s">
+      <c r="J43" s="16"/>
+      <c r="K43" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="L43" s="17"/>
+      <c r="L43" s="16"/>
       <c r="M43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:11">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="7" t="s">
         <v>233</v>
       </c>
@@ -6748,23 +6271,23 @@
       <c r="I44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:11">
+    <row r="46" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>241</v>
       </c>
@@ -6786,11 +6309,11 @@
       <c r="I46" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:4">
+    <row r="47" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>248</v>
       </c>
@@ -6801,7 +6324,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:9">
+    <row r="48" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>251</v>
       </c>
@@ -6824,7 +6347,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:12">
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -6841,7 +6364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:10">
+    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>262</v>
       </c>
@@ -6864,7 +6387,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:12">
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -6878,15 +6401,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="19" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="18" t="s">
         <v>273</v>
       </c>
       <c r="F52" t="s">
@@ -6902,20 +6425,20 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:12">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="19" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="18" t="s">
         <v>279</v>
       </c>
       <c r="L53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:9">
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -6938,22 +6461,22 @@
         <v>286</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:12">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="19" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="18" t="s">
         <v>289</v>
       </c>
       <c r="L55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>290</v>
       </c>
@@ -6967,19 +6490,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="19" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>297</v>
       </c>
@@ -6993,27 +6516,27 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" ht="13.5" spans="1:4">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="19" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="19" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="18" t="s">
         <v>306</v>
       </c>
       <c r="F60" t="s">
@@ -7032,19 +6555,19 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="19" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -7070,7 +6593,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:4">
+    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>321</v>
       </c>
@@ -7081,7 +6604,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>324</v>
       </c>
@@ -7107,7 +6630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:4">
+    <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>331</v>
       </c>
@@ -7118,7 +6641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:10">
+    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>334</v>
       </c>
@@ -7141,7 +6664,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:4">
+    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>340</v>
       </c>
@@ -7152,7 +6675,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:9">
+    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>343</v>
       </c>
@@ -7175,7 +6698,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:4">
+    <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>349</v>
       </c>
@@ -7186,7 +6709,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:9">
+    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>352</v>
       </c>
@@ -7209,7 +6732,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:4">
+    <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>358</v>
       </c>
@@ -7220,7 +6743,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:9">
+    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>361</v>
       </c>
@@ -7243,7 +6766,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:4">
+    <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -7254,7 +6777,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -7277,7 +6800,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:4">
+    <row r="75" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -7288,7 +6811,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:12">
+    <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>377</v>
       </c>
@@ -7317,7 +6840,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:4">
+    <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>385</v>
       </c>
@@ -7328,7 +6851,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:12">
+    <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>388</v>
       </c>
@@ -7357,7 +6880,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:4">
+    <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>396</v>
       </c>
@@ -7368,7 +6891,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:9">
+    <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>399</v>
       </c>
@@ -7387,11 +6910,11 @@
       <c r="H80" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I80" s="20" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:9">
+    <row r="81" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>406</v>
       </c>
@@ -7401,11 +6924,11 @@
       <c r="D81" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I81" s="21" t="s">
+      <c r="I81" s="20" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:9">
+    <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>409</v>
       </c>
@@ -7424,11 +6947,11 @@
       <c r="H82" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="I82" s="20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:4">
+    <row r="83" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>416</v>
       </c>
@@ -7439,7 +6962,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:9">
+    <row r="84" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>419</v>
       </c>
@@ -7462,7 +6985,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:9">
+    <row r="85" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>425</v>
       </c>
@@ -7472,11 +6995,11 @@
       <c r="D85" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:9">
+    <row r="86" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>429</v>
       </c>
@@ -7499,7 +7022,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:9">
+    <row r="87" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>436</v>
       </c>
@@ -7509,11 +7032,11 @@
       <c r="D87" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="20" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:9">
+    <row r="88" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>440</v>
       </c>
@@ -7532,11 +7055,11 @@
       <c r="H88" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:9">
+    <row r="89" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>447</v>
       </c>
@@ -7546,11 +7069,11 @@
       <c r="D89" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:9">
+    <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>451</v>
       </c>
@@ -7569,11 +7092,11 @@
       <c r="H90" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="20" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:9">
+    <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>458</v>
       </c>
@@ -7583,11 +7106,11 @@
       <c r="D91" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="20" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:9">
+    <row r="92" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>462</v>
       </c>
@@ -7606,11 +7129,11 @@
       <c r="H92" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="20" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:9">
+    <row r="93" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>468</v>
       </c>
@@ -7624,7 +7147,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:9">
+    <row r="94" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>472</v>
       </c>
@@ -7643,11 +7166,11 @@
       <c r="H94" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="I94" s="21" t="s">
+      <c r="I94" s="20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:9">
+    <row r="95" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>479</v>
       </c>
@@ -7658,7 +7181,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:9">
+    <row r="96" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>482</v>
       </c>
@@ -7677,11 +7200,11 @@
       <c r="H96" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="I96" s="21" t="s">
+      <c r="I96" s="20" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:9">
+    <row r="97" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -7691,11 +7214,11 @@
       <c r="D97" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="I97" s="21" t="s">
+      <c r="I97" s="20" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:9">
+    <row r="98" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>493</v>
       </c>
@@ -7714,25 +7237,25 @@
       <c r="H98" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I98" s="21" t="s">
+      <c r="I98" s="20" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:16">
+    <row r="99" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>500</v>
       </c>
       <c r="B99" t="s">
         <v>501</v>
       </c>
-      <c r="I99" s="21" t="s">
+      <c r="I99" s="20" t="s">
         <v>502</v>
       </c>
       <c r="P99" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:9">
+    <row r="100" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>504</v>
       </c>
@@ -7751,11 +7274,11 @@
       <c r="H100" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="20" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:9">
+    <row r="101" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>509</v>
       </c>
@@ -7765,11 +7288,11 @@
       <c r="D101" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="20" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:9">
+    <row r="102" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>513</v>
       </c>
@@ -7788,11 +7311,11 @@
       <c r="H102" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="I102" s="21" t="s">
+      <c r="I102" s="20" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:9">
+    <row r="103" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>520</v>
       </c>
@@ -7802,11 +7325,11 @@
       <c r="D103" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="20" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:9">
+    <row r="104" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>524</v>
       </c>
@@ -7825,11 +7348,11 @@
       <c r="H104" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I104" s="21" t="s">
+      <c r="I104" s="20" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:9">
+    <row r="105" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>530</v>
       </c>
@@ -7839,11 +7362,11 @@
       <c r="D105" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:9">
+    <row r="106" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>534</v>
       </c>
@@ -7862,11 +7385,11 @@
       <c r="H106" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="I106" s="21" t="s">
+      <c r="I106" s="20" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:9">
+    <row r="107" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>541</v>
       </c>
@@ -7876,11 +7399,11 @@
       <c r="D107" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I107" s="21" t="s">
+      <c r="I107" s="20" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:4">
+    <row r="108" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>545</v>
       </c>
@@ -7891,7 +7414,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:4">
+    <row r="109" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>548</v>
       </c>
@@ -7902,7 +7425,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:4">
+    <row r="110" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>551</v>
       </c>
@@ -7913,7 +7436,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:4">
+    <row r="111" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>554</v>
       </c>
@@ -7924,7 +7447,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:4">
+    <row r="112" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>557</v>
       </c>
@@ -7935,7 +7458,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:4">
+    <row r="113" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>560</v>
       </c>
@@ -7946,7 +7469,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:4">
+    <row r="114" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>563</v>
       </c>
@@ -7957,7 +7480,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:4">
+    <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>566</v>
       </c>
@@ -7968,7 +7491,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:4">
+    <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>569</v>
       </c>
@@ -7979,7 +7502,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:4">
+    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>572</v>
       </c>
@@ -7990,7 +7513,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:4">
+    <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>575</v>
       </c>
@@ -8001,7 +7524,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:4">
+    <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>578</v>
       </c>
@@ -8012,7 +7535,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:4">
+    <row r="120" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>581</v>
       </c>
@@ -8023,7 +7546,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:4">
+    <row r="121" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>584</v>
       </c>
@@ -8034,7 +7557,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:4">
+    <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>587</v>
       </c>
@@ -8045,7 +7568,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:4">
+    <row r="123" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>590</v>
       </c>
@@ -8056,7 +7579,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:4">
+    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>593</v>
       </c>
@@ -8067,7 +7590,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:4">
+    <row r="125" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>596</v>
       </c>
@@ -8078,7 +7601,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:4">
+    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>599</v>
       </c>
@@ -8089,7 +7612,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:4">
+    <row r="127" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>602</v>
       </c>
@@ -8100,7 +7623,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:4">
+    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>605</v>
       </c>
@@ -8111,7 +7634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:4">
+    <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>608</v>
       </c>
@@ -8122,7 +7645,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:4">
+    <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>611</v>
       </c>
@@ -8133,7 +7656,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:4">
+    <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>614</v>
       </c>
@@ -8144,7 +7667,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:4">
+    <row r="132" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>617</v>
       </c>
@@ -8155,7 +7678,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:4">
+    <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>620</v>
       </c>
@@ -8166,7 +7689,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:4">
+    <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>623</v>
       </c>
@@ -8177,7 +7700,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:4">
+    <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>626</v>
       </c>
@@ -8188,7 +7711,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:4">
+    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>629</v>
       </c>
@@ -8199,7 +7722,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:4">
+    <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>632</v>
       </c>
@@ -8210,7 +7733,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:4">
+    <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>635</v>
       </c>
@@ -8221,7 +7744,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:4">
+    <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>638</v>
       </c>
@@ -8232,7 +7755,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:4">
+    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>640</v>
       </c>
@@ -8243,7 +7766,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:4">
+    <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>643</v>
       </c>
@@ -8251,7 +7774,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:4">
+    <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>645</v>
       </c>
@@ -8262,7 +7785,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:2">
+    <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>646</v>
       </c>
@@ -8270,7 +7793,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:4">
+    <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>648</v>
       </c>
@@ -8281,7 +7804,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:4">
+    <row r="145" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>651</v>
       </c>
@@ -8292,7 +7815,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:4">
+    <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>654</v>
       </c>
@@ -8303,7 +7826,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:4">
+    <row r="147" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>657</v>
       </c>
@@ -8314,7 +7837,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:4">
+    <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>660</v>
       </c>
@@ -8325,7 +7848,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:4">
+    <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>663</v>
       </c>
@@ -8336,7 +7859,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:4">
+    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>381</v>
       </c>
@@ -8347,7 +7870,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:4">
+    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>485</v>
       </c>
@@ -8358,7 +7881,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:4">
+    <row r="152" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>669</v>
       </c>
@@ -8369,7 +7892,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:4">
+    <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>672</v>
       </c>
@@ -8380,7 +7903,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:4">
+    <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>675</v>
       </c>
@@ -8391,7 +7914,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:4">
+    <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>678</v>
       </c>
@@ -8402,7 +7925,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:4">
+    <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>681</v>
       </c>
@@ -8413,7 +7936,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:4">
+    <row r="157" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>254</v>
       </c>
@@ -8424,7 +7947,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:4">
+    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>244</v>
       </c>
@@ -8435,7 +7958,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:4">
+    <row r="159" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -8446,7 +7969,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:4">
+    <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>690</v>
       </c>
@@ -8457,7 +7980,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:4">
+    <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>693</v>
       </c>
@@ -8468,7 +7991,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:4">
+    <row r="162" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>696</v>
       </c>
@@ -8479,7 +8002,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:4">
+    <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>699</v>
       </c>
@@ -8490,7 +8013,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:4">
+    <row r="164" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>702</v>
       </c>
@@ -8501,7 +8024,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:4">
+    <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>705</v>
       </c>
@@ -8512,7 +8035,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:4">
+    <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -8523,7 +8046,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:4">
+    <row r="167" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>710</v>
       </c>
@@ -8534,12 +8057,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:1">
+    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:4">
+    <row r="169" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>714</v>
       </c>
@@ -8550,7 +8073,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:3">
+    <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>717</v>
       </c>
@@ -8558,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:3">
+    <row r="171" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>718</v>
       </c>
@@ -8566,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:3">
+    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>719</v>
       </c>
@@ -8574,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:4">
+    <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -8585,7 +8108,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:4">
+    <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>722</v>
       </c>
@@ -8596,7 +8119,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:4">
+    <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>724</v>
       </c>
@@ -8607,7 +8130,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:4">
+    <row r="176" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>727</v>
       </c>
@@ -8618,7 +8141,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:4">
+    <row r="177" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>730</v>
       </c>
@@ -8629,7 +8152,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:4">
+    <row r="178" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>733</v>
       </c>
@@ -8637,7 +8160,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:4">
+    <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>735</v>
       </c>
@@ -8648,7 +8171,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:4">
+    <row r="180" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>738</v>
       </c>
@@ -8659,7 +8182,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:4">
+    <row r="181" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>741</v>
       </c>
@@ -8670,7 +8193,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:4">
+    <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>744</v>
       </c>
@@ -8678,7 +8201,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:4">
+    <row r="183" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>746</v>
       </c>
@@ -8689,12 +8212,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:1">
+    <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:4">
+    <row r="185" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>750</v>
       </c>
@@ -8705,7 +8228,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:4">
+    <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>752</v>
       </c>
@@ -8716,7 +8239,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:4">
+    <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>755</v>
       </c>
@@ -8727,7 +8250,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:3">
+    <row r="188" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>758</v>
       </c>
@@ -8735,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:4">
+    <row r="189" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>759</v>
       </c>
@@ -8746,7 +8269,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:4">
+    <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>761</v>
       </c>
@@ -8757,7 +8280,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:3">
+    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>764</v>
       </c>
@@ -8765,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:2">
+    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>765</v>
       </c>
@@ -8773,7 +8296,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:4">
+    <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>767</v>
       </c>
@@ -8784,7 +8307,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:4">
+    <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>770</v>
       </c>
@@ -8795,7 +8318,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:4">
+    <row r="196" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>772</v>
       </c>
@@ -8806,7 +8329,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:4">
+    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>775</v>
       </c>
@@ -8817,7 +8340,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:3">
+    <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>778</v>
       </c>
@@ -8825,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:3">
+    <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>779</v>
       </c>
@@ -8833,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:4">
+    <row r="200" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>780</v>
       </c>
@@ -8844,7 +8367,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:4">
+    <row r="201" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>783</v>
       </c>
@@ -8860,28 +8383,27 @@
     <mergeCell ref="F5:S5"/>
     <mergeCell ref="F6:S6"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A12 A5:A9 A21:A27 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A27 A5:A9 A12 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:F146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
@@ -8891,7 +8413,7 @@
     <col min="10" max="10" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>785</v>
       </c>
@@ -8899,7 +8421,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:6">
+    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>787</v>
       </c>
@@ -8913,7 +8435,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:6">
+    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>791</v>
       </c>
@@ -8924,7 +8446,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>793</v>
       </c>
@@ -8935,7 +8457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -8946,7 +8468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
+    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>796</v>
       </c>
@@ -8957,7 +8479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -8968,7 +8490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -8979,7 +8501,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>800</v>
       </c>
@@ -8993,7 +8515,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:5">
+    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>752</v>
       </c>
@@ -9001,7 +8523,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:5">
+    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>755</v>
       </c>
@@ -9009,7 +8531,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:5">
+    <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>806</v>
       </c>
@@ -9017,7 +8539,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:5">
+    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>761</v>
       </c>
@@ -9025,12 +8547,12 @@
         <v>808</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:2">
+    <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:5">
+    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>809</v>
       </c>
@@ -9041,89 +8563,89 @@
         <v>811</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:5">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>812</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:5">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
         <v>815</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="2:5">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
         <v>646</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="2:5">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
         <v>818</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:5">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
         <v>820</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="2:5">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
         <v>822</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:5">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
         <v>825</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:5">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
         <v>827</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:5">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
         <v>829</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>831</v>
       </c>
@@ -9134,7 +8656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="2:5">
+    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
@@ -9142,7 +8664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="2:5">
+    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>118</v>
       </c>
@@ -9150,7 +8672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="2:5">
+    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>137</v>
       </c>
@@ -9158,7 +8680,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="2:5">
+    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
@@ -9166,7 +8688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="2:5">
+    <row r="36" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>130</v>
       </c>
@@ -9174,7 +8696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="2:5">
+    <row r="37" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>141</v>
       </c>
@@ -9182,7 +8704,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:5">
+    <row r="38" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>148</v>
       </c>
@@ -9190,7 +8712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:5">
+    <row r="39" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
@@ -9198,7 +8720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:5">
+    <row r="40" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>381</v>
       </c>
@@ -9206,7 +8728,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:5">
+    <row r="41" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>541</v>
       </c>
@@ -9217,7 +8739,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>834</v>
       </c>
@@ -9228,7 +8750,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:5">
+    <row r="44" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>590</v>
       </c>
@@ -9239,7 +8761,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:5">
+    <row r="45" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>593</v>
       </c>
@@ -9250,7 +8772,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:5">
+    <row r="46" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>599</v>
       </c>
@@ -9261,7 +8783,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>839</v>
       </c>
@@ -9272,7 +8794,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:5">
+    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>842</v>
       </c>
@@ -9280,7 +8802,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:5">
+    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>844</v>
       </c>
@@ -9288,7 +8810,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:5">
+    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>846</v>
       </c>
@@ -9296,7 +8818,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -9307,7 +8829,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="2:5">
+    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>186</v>
       </c>
@@ -9315,7 +8837,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="2:5">
+    <row r="55" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>850</v>
       </c>
@@ -9323,7 +8845,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="2:5">
+    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>852</v>
       </c>
@@ -9331,7 +8853,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="2:5">
+    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>204</v>
       </c>
@@ -9339,7 +8861,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="2:5">
+    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>207</v>
       </c>
@@ -9347,7 +8869,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="2:5">
+    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>231</v>
       </c>
@@ -9355,7 +8877,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="2:5">
+    <row r="60" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>238</v>
       </c>
@@ -9363,7 +8885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="2:5">
+    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>857</v>
       </c>
@@ -9371,7 +8893,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="2:5">
+    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>859</v>
       </c>
@@ -9379,7 +8901,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="2:5">
+    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>617</v>
       </c>
@@ -9387,7 +8909,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="2:5">
+    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>248</v>
       </c>
@@ -9395,7 +8917,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>269</v>
       </c>
@@ -9406,7 +8928,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="2:5">
+    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>864</v>
       </c>
@@ -9414,7 +8936,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="2:5">
+    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>287</v>
       </c>
@@ -9422,7 +8944,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="2:5">
+    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>867</v>
       </c>
@@ -9430,7 +8952,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="2:5">
+    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>301</v>
       </c>
@@ -9438,7 +8960,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="2:5">
+    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>304</v>
       </c>
@@ -9449,7 +8971,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="2:5">
+    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>311</v>
       </c>
@@ -9457,7 +8979,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>872</v>
       </c>
@@ -9468,7 +8990,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="2:5">
+    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>875</v>
       </c>
@@ -9476,7 +8998,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="2:5">
+    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>877</v>
       </c>
@@ -9484,7 +9006,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="2:5">
+    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>879</v>
       </c>
@@ -9492,7 +9014,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="2:5">
+    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>881</v>
       </c>
@@ -9500,7 +9022,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="2:5">
+    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>883</v>
       </c>
@@ -9508,7 +9030,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="2:3">
+    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>885</v>
       </c>
@@ -9516,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="2:5">
+    <row r="81" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>886</v>
       </c>
@@ -9524,7 +9046,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="2:5">
+    <row r="82" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>888</v>
       </c>
@@ -9532,7 +9054,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="2:5">
+    <row r="83" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>638</v>
       </c>
@@ -9540,7 +9062,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="2:5">
+    <row r="84" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>891</v>
       </c>
@@ -9548,7 +9070,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="2:5">
+    <row r="85" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>893</v>
       </c>
@@ -9556,7 +9078,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="2:5">
+    <row r="86" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>895</v>
       </c>
@@ -9564,7 +9086,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="2:5">
+    <row r="87" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>897</v>
       </c>
@@ -9572,7 +9094,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="2:5">
+    <row r="88" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>899</v>
       </c>
@@ -9580,7 +9102,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="2:5">
+    <row r="89" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>901</v>
       </c>
@@ -9588,64 +9110,64 @@
         <v>902</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="2:5">
-      <c r="B90" s="3" t="s">
+    <row r="90" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="24" t="s">
         <v>903</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="2:5">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="24" t="s">
         <v>905</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="2:5">
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="24" t="s">
         <v>907</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="2:5">
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="24" t="s">
         <v>909</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="2:5">
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="24" t="s">
         <v>911</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="2:5">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="24" t="s">
         <v>913</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="2:5">
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="24" t="s">
         <v>915</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="2:5">
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="24" t="s">
         <v>917</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -9655,8 +9177,8 @@
         <v>919</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="2:5">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="24" t="s">
         <v>920</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -9666,16 +9188,16 @@
         <v>922</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="2:5">
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="24" t="s">
         <v>923</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="2:5">
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="24" t="s">
         <v>925</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -9685,7 +9207,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:5">
+    <row r="102" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>440</v>
       </c>
@@ -9696,7 +9218,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="2:5">
+    <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>451</v>
       </c>
@@ -9704,15 +9226,15 @@
         <v>929</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="2:5">
-      <c r="B104" s="3" t="s">
+    <row r="104" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="24" t="s">
         <v>468</v>
       </c>
       <c r="E104" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="2:5">
+    <row r="105" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>931</v>
       </c>
@@ -9720,7 +9242,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="2:5">
+    <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>482</v>
       </c>
@@ -9728,8 +9250,8 @@
         <v>933</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="2:5">
-      <c r="B107" s="3" t="s">
+    <row r="107" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="24" t="s">
         <v>934</v>
       </c>
       <c r="D107" t="s">
@@ -9739,50 +9261,50 @@
         <v>936</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="2:5">
-      <c r="B108" s="3" t="s">
+    <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="24" t="s">
         <v>530</v>
       </c>
       <c r="E108" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="2:5">
-      <c r="B109" s="3" t="s">
+    <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="24" t="s">
         <v>520</v>
       </c>
       <c r="E109" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="2:5">
-      <c r="B110" s="3" t="s">
+    <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="24" t="s">
         <v>524</v>
       </c>
       <c r="E110" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:5">
+    <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="24" t="s">
         <v>361</v>
       </c>
       <c r="E112" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="2:5">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="24" t="s">
         <v>396</v>
       </c>
       <c r="E113" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="2:5">
+    <row r="114" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>369</v>
       </c>
@@ -9790,7 +9312,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="2:5">
+    <row r="115" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>385</v>
       </c>
@@ -9798,7 +9320,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="2:5">
+    <row r="116" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>419</v>
       </c>
@@ -9806,209 +9328,295 @@
         <v>944</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="2:5">
-      <c r="B117" s="3" t="s">
+    <row r="117" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="24" t="s">
         <v>244</v>
       </c>
       <c r="E117" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:2">
-      <c r="A119" s="1" t="s">
+    <row r="118" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="25" t="s">
+        <v>968</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="25"/>
+    </row>
+    <row r="130" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="25"/>
+    </row>
+    <row r="131" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B131" s="24" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="2:5">
-      <c r="B120" s="3" t="s">
+    <row r="132" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E132" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="2:5">
-      <c r="B121" s="3" t="s">
+    <row r="133" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E133" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="2:5">
-      <c r="B122" s="3" t="s">
+    <row r="134" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E134" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="1" t="s">
+    <row r="136" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E136" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="2:5">
-      <c r="B125" s="3" t="s">
+    <row r="137" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E137" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="2:5">
-      <c r="B126" s="3" t="s">
+    <row r="138" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E138" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="2:5">
-      <c r="B127" s="3" t="s">
+    <row r="139" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E139" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="2:5">
-      <c r="B128" s="3" t="s">
+    <row r="140" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E140" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="1" t="s">
+    <row r="142" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E142" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="2:5">
-      <c r="B131" s="3" t="s">
+    <row r="143" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E143" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="2:5">
-      <c r="B132" s="3" t="s">
+    <row r="144" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E144" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="2:5">
-      <c r="B133" s="3" t="s">
+    <row r="145" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E145" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="2:5">
-      <c r="B134" s="3" t="s">
+    <row r="147" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E147" t="s">
         <v>961</v>
       </c>
-      <c r="E134" t="s">
+    </row>
+    <row r="148" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E148" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E136" t="s">
+    <row r="149" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E149" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="2:5">
-      <c r="B137" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E137" t="s">
+    <row r="150" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E150" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="2:5">
-      <c r="B138" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E138" t="s">
+    <row r="151" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E151" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="2:5">
-      <c r="B139" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E139" t="s">
+    <row r="152" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E152" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="2:5">
-      <c r="B140" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E140" t="s">
+    <row r="153" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="3"/>
+    </row>
+    <row r="157" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E157" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="2:5">
-      <c r="B141" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E141" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="2:2">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" customHeight="1" spans="2:2">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" customHeight="1" spans="2:2">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="146" customHeight="1" spans="2:5">
-      <c r="B146" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E146" t="s">
-        <v>969</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B39 B41:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CSS" sheetId="2" r:id="rId2"/>
+    <sheet name="HTML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1178">
   <si>
     <t>hyper text</t>
   </si>
@@ -4073,13 +4074,214 @@
     <t>figcaption</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>/'ɑrtɪkl/</t>
-  </si>
-  <si>
-    <t>section</t>
+    <t>基本</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [boʊθ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trænsˈpærənt]</t>
+  </si>
+  <si>
+    <t>[ˈsɑ:lɪd]</t>
+  </si>
+  <si>
+    <t>[ˈdɑ:tɪd]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dæʃt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdʌbəl] </t>
+  </si>
+  <si>
+    <t>鼠标</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>[ˈkɜ:rsə(r)]</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈfɔlt] </t>
+  </si>
+  <si>
+    <t>crosshair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['krɔ:sher] </t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɔɪntɚ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪ'vɜ:st] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪsk]</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɜ:rkl]</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>[skwer]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdɛsəməl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈli:dɪŋ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [roˈmɑŋ] </t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈloʊə(r)] </t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈʌpɚ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pəˈzɪʃən]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [aʊtˈsaɪd, ˈaʊtˌsaɪd] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkæpʃən] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">col </t>
+  </si>
+  <si>
+    <t>[kɑ:l]</t>
+  </si>
+  <si>
+    <t>[roʊ]</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[spæn] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kəˈlæps] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['sepəreɪt] </t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>[ˈmɛθəd]</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈækʃən] </t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>[ˈleɪbl]</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪnˌpʊt]</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [reɪ'dɒnlɪ]</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtʃekbɑ:ks]</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ækˈsɛpt]</t>
+  </si>
+  <si>
+    <t>[ˈhɪdn:]</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>ˈeriə]</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɪ'lektɪd]</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈɑ:pʃn] </t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbʌtn]</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səbˈmɪt]</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [riˈsɛt]</t>
+  </si>
+  <si>
+    <t>search</t>
   </si>
   <si>
     <r>
@@ -4089,7 +4291,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/'sɛkʃən/</t>
+      <t>/sɝtʃ/</t>
     </r>
     <r>
       <rPr>
@@ -4102,7 +4304,13 @@
     </r>
   </si>
   <si>
-    <t>aside</t>
+    <t>range</t>
+  </si>
+  <si>
+    <t>/rendʒ/</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <r>
@@ -4112,7 +4320,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t>/det/</t>
     </r>
     <r>
       <rPr>
@@ -4121,227 +4329,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/ə'saɪd/</t>
-    </r>
-  </si>
-  <si>
-    <t>基本</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [boʊθ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [trænsˈpærənt]</t>
-  </si>
-  <si>
-    <t>线</t>
-  </si>
-  <si>
-    <t>[ˈsɑ:lɪd]</t>
-  </si>
-  <si>
-    <t>[ˈdɑ:tɪd]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dæʃt] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈdʌbəl] </t>
-  </si>
-  <si>
-    <t>鼠标</t>
-  </si>
-  <si>
-    <t>cursor</t>
-  </si>
-  <si>
-    <t>[ˈkɜ:rsə(r)]</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dɪˈfɔlt] </t>
-  </si>
-  <si>
-    <t>crosshair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['krɔ:sher] </t>
-  </si>
-  <si>
-    <t>pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈpɔɪntɚ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [rɪ'vɜ:st] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dɪsk]</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈsɜ:rkl]</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>[skwer]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈdɛsəməl] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈli:dɪŋ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [roˈmɑŋ] </t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈloʊə(r)] </t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈʌpɚ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [pəˈzɪʃən]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [aʊtˈsaɪd, ˈaʊtˌsaɪd] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈkæpʃən] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">col </t>
-  </si>
-  <si>
-    <t>[kɑ:l]</t>
-  </si>
-  <si>
-    <t>[roʊ]</t>
-  </si>
-  <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[spæn] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[kəˈlæps] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['sepəreɪt] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈspesɪŋ] </t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>[ˈmɛθəd]</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈækʃən] </t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>[ˈleɪbl]</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈɪnˌpʊt]</t>
-  </si>
-  <si>
-    <t>readonly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [reɪ'dɒnlɪ]</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [dɪsˈebəld]</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈtʃekbɑ:ks]</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ækˈsɛpt]</t>
-  </si>
-  <si>
-    <t>[ˈhɪdn:]</t>
-  </si>
-  <si>
-    <t>textarea</t>
-  </si>
-  <si>
-    <t>ˈeriə]</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [sɪ'lektɪd]</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈɑ:pʃn] </t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈbʌtn]</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [səbˈmɪt]</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [riˈsɛt]</t>
-  </si>
-  <si>
-    <t>search</t>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>/ˈplesholdər/</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
   <si>
     <r>
@@ -4351,7 +4349,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/sɝtʃ/</t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -4360,19 +4358,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>/rendʒ/</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
+      <t>/'mʌltəpl/</t>
+    </r>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4380,8 +4367,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/det/</t>
-    </r>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>autofocus</t>
+  </si>
+  <si>
+    <t>/,ɔto'fokəs/</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
+  </si>
+  <si>
+    <t>/kəm'plit/</t>
+  </si>
+  <si>
+    <t>optgroup</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4391,17 +4395,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t>placeholder</t>
-  </si>
-  <si>
-    <t>/ˈplesholdər/</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4409,8 +4402,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
-    </r>
+      <t>/ɑpt/</t>
+    </r>
+  </si>
+  <si>
+    <t>/ɡrup/</t>
+  </si>
+  <si>
+    <t>fieldset</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.75"/>
@@ -4418,7 +4419,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/'mʌltəpl/</t>
+      <t>/fild/</t>
     </r>
     <r>
       <rPr>
@@ -4431,19 +4432,10 @@
     </r>
   </si>
   <si>
-    <t>autofocus</t>
-  </si>
-  <si>
-    <t>/,ɔto'fokəs/</t>
-  </si>
-  <si>
-    <t>autocomplete</t>
-  </si>
-  <si>
-    <t>/kəm'plit/</t>
-  </si>
-  <si>
-    <t>optgroup</t>
+    <t>/sɛt/</t>
+  </si>
+  <si>
+    <t>legend</t>
   </si>
   <si>
     <r>
@@ -4462,14 +4454,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/ɑpt/</t>
-    </r>
-  </si>
-  <si>
-    <t>/ɡrup/</t>
-  </si>
-  <si>
-    <t>fieldset</t>
+      <t>/'lɛdʒənd/</t>
+    </r>
+  </si>
+  <si>
+    <t>datalist</t>
+  </si>
+  <si>
+    <t>/'detə/</t>
   </si>
   <si>
     <r>
@@ -4479,7 +4471,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/fild/</t>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -4488,58 +4480,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>/sɛt/</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/'lɛdʒənd/</t>
-    </r>
-  </si>
-  <si>
-    <t>datalist</t>
-  </si>
-  <si>
-    <t>/'detə/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>/lɪst/</t>
     </r>
   </si>
@@ -4625,24 +4565,9 @@
     <t>[ˈɔ:rɪdʒɪn]</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [ˈrediəs]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [ˈpædɪŋ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈmɑ:rdʒən]</t>
-  </si>
-  <si>
-    <t>[ˈɔ:toʊ]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [ˈæbsəˌlut]</t>
   </si>
   <si>
@@ -4659,9 +4584,6 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˈvɪzəbəl]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈmidiə]</t>
   </si>
   <si>
     <r>
@@ -4698,67 +4620,1387 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t> /'ʃædo/</t>
+  </si>
+  <si>
+    <t>/dəˈrɛkʃən</t>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'junɪˌkod/</t>
+  </si>
+  <si>
+    <t>unicode</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/,ovɚ'raɪd/</t>
+  </si>
+  <si>
+    <t>/'raɪtɪŋ</t>
+  </si>
+  <si>
+    <t>writing</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'hɔrə'zɑntl/ </t>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /træns'fɔrm/</t>
+  </si>
+  <si>
+    <t>/'loɚ,kes/</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>override</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /vju/ </t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iew</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/</t>
+  </si>
+  <si>
+    <t> /ɡɛt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪsˈebld]</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'redɪo/ </t>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本区</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>值域</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动聚焦</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>节</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rticle</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>aside</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'ɑrtɪkl/ </t>
+  </si>
+  <si>
+    <t>/'sɛkʃən/</t>
+  </si>
+  <si>
+    <t> /ə'saɪd/ </t>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>udio</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoplay</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>controls</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>muted</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>preload</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rame</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rameset</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrolling</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>noresize</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameborder</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>marginheight</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>noframes</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/skrolɪŋ/</t>
+  </si>
+  <si>
+    <t>卷动</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/frem/ </t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>画布</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'ɔdɪo/</t>
+  </si>
+  <si>
+    <t>音频</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>源</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'vɪdɪo/</t>
+  </si>
+  <si>
+    <t>/sɔrs/</t>
+  </si>
+  <si>
+    <t>/'ɔto/ </t>
+  </si>
+  <si>
+    <t>/ple/</t>
+  </si>
+  <si>
+    <t>/kən'trol/</t>
+  </si>
+  <si>
+    <t>控件</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lup/</t>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'mjuːtɪd/</t>
+  </si>
+  <si>
+    <t>静音</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'pri:'ləud/ </t>
+  </si>
+  <si>
+    <t>预加载</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'postɚ/</t>
+  </si>
+  <si>
+    <t>海报</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动播放</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hortcut</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'ʃɔrt,kʌt/ </t>
+  </si>
+  <si>
+    <t>捷径</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /ɪm'pɔrtnt/</t>
+  </si>
+  <si>
+    <t>impotant</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ast</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>irst</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hild</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efore</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fter</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /læst/</t>
+  </si>
+  <si>
+    <t> /fɝst/</t>
+  </si>
+  <si>
+    <t>/tʃaɪld/</t>
+  </si>
+  <si>
+    <t> /bɪ'fɔr/</t>
+  </si>
+  <si>
+    <t>/'æftɚ/ </t>
+  </si>
+  <si>
+    <t>microsoft</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'maikrəusɔft/</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edia</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>creen</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'miːdɪə/</t>
+  </si>
+  <si>
+    <t>/skrin/</t>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pacity</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/o'pæsəti/</t>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>visited</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ayout</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'leaʊt/</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mpty</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ˈɛmptɪ/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>cells</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sɛl/</t>
+  </si>
+  <si>
+    <t>clip</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/klɪp/ </t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>shadow</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t> /'ʃædo/</t>
-  </si>
-  <si>
-    <t>/dəˈrɛkʃən</t>
-  </si>
-  <si>
-    <t>direction</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t> /'junɪˌkod/</t>
-  </si>
-  <si>
-    <t>unicode</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>/,ovɚ'raɪd/</t>
-  </si>
-  <si>
-    <t>/'raɪtɪŋ</t>
-  </si>
-  <si>
-    <t>writing</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t> /'hɔrə'zɑntl/ </t>
-  </si>
-  <si>
-    <t>transform</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t> /træns'fɔrm/</t>
-  </si>
-  <si>
-    <t>/'loɚ,kes/</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>override</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>horizontal</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ill</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>inset</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /slaɪs/</t>
+  </si>
+  <si>
+    <t> /fɪl/</t>
+  </si>
+  <si>
+    <t>outset</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utline</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/,ɔf'sɛt/</t>
+  </si>
+  <si>
+    <t> /'aʊtsɛt/</t>
+  </si>
+  <si>
+    <t> /'aʊtlaɪn/</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'ɪn,sɛt; ɪn'sɛt/</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ounter</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ncrement</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'kaʊntər/</t>
+  </si>
+  <si>
+    <t> /'ɪŋkrəmənt/</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osition</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'ɪndɛks/ </t>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /klɪr/ </t>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isibility</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'vɪzə'bɪləti/</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>izing</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esize</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /'saɪzɪŋ/ </t>
+  </si>
+  <si>
+    <t>/,ri'saɪz/</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olumn</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olumn</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ule</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɡæp/</t>
+  </si>
+  <si>
+    <t> /'kɑləm/</t>
+  </si>
+  <si>
+    <t> /rul/</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lex</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lex</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/flɛks/ </t>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hrink</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asis</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>low</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ustify</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tart</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etween</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>round</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tems</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aseline</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɡro</t>
+  </si>
+  <si>
+    <t> /ʃrɪŋk/</t>
+  </si>
+  <si>
+    <t> /'besɪs/ </t>
+  </si>
+  <si>
+    <t> /flo/</t>
+  </si>
+  <si>
+    <t>/ræp/</t>
+  </si>
+  <si>
+    <t>/'dʒʌstə'fai/</t>
+  </si>
+  <si>
+    <t> /stɑrt/ </t>
+  </si>
+  <si>
+    <t> /ɛnd/</t>
+  </si>
+  <si>
+    <t>/bəˈtwin/</t>
+  </si>
+  <si>
+    <t> /ə'raʊnd/ </t>
+  </si>
+  <si>
+    <t> /ˈaɪtəmz/</t>
+  </si>
+  <si>
+    <t>/'beslaɪn/</t>
+  </si>
+  <si>
+    <t>/'ɔrdɚ/ </t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reak</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /brek/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4923,6 +6165,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4958,7 +6216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5028,20 +6286,102 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5355,7 +6695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
+    <sheetView topLeftCell="F22" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -5455,22 +6795,22 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5482,22 +6822,22 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8385,22 +9725,22 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A12 A5:A9 A21:A27 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A27 A5:A9 A12 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F157"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8413,1210 +9753,1982 @@
     <col min="10" max="10" width="12.625"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1071</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>786</v>
-      </c>
+      <c r="B2" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>790</v>
+        <v>1073</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="E5" t="s">
-        <v>794</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
+      <c r="B6" s="26" t="s">
+        <v>1096</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+      <c r="B7" s="26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E7" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
+      <c r="B8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="F9" t="s">
-        <v>799</v>
+      <c r="B9" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F11" t="s">
-        <v>803</v>
+      <c r="B11" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="E12" t="s">
-        <v>804</v>
+      <c r="B12" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E13" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="E14" t="s">
-        <v>807</v>
+      <c r="B13" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" t="s">
-        <v>808</v>
+      <c r="A15" s="27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>811</v>
+      <c r="B16" s="24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>813</v>
+      <c r="A18" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>814</v>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>816</v>
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>817</v>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>819</v>
+      <c r="B22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>821</v>
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>823</v>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>824</v>
+      <c r="B25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="E27" s="6" t="s">
+    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>829</v>
       </c>
-      <c r="E28" s="6" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>831</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="B32"/>
     </row>
     <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>120</v>
+      <c r="A33" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E33" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>139</v>
+      <c r="B34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>127</v>
+      <c r="B35" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>132</v>
+      <c r="B36" t="s">
+        <v>922</v>
+      </c>
+      <c r="E36" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>143</v>
+      <c r="B37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>150</v>
+      <c r="B38" t="s">
+        <v>925</v>
+      </c>
+      <c r="D38" t="s">
+        <v>926</v>
+      </c>
+      <c r="E38" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>153</v>
+      <c r="B39" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>381</v>
+      <c r="B40" t="s">
+        <v>520</v>
       </c>
       <c r="E40" t="s">
-        <v>832</v>
+        <v>929</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>524</v>
       </c>
       <c r="E41" t="s">
-        <v>833</v>
-      </c>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42"/>
     </row>
     <row r="43" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>596</v>
+        <v>352</v>
+      </c>
+      <c r="B43" t="s">
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>835</v>
+        <v>931</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C44">
+      <c r="B44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>953</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>955</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>958</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>961</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>963</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>972</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>966</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>973</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>968</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>971</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>541</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C45">
+      <c r="E62" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E64" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E65" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E66" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E67" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E68" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="28" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E71" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="28" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="E48" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+      <c r="E83" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="24" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" t="s">
         <v>842</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+      <c r="E89" t="s">
         <v>844</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="E90" t="s">
         <v>846</v>
       </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="92" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" t="s">
+    <row r="93" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E93" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+    <row r="94" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E95" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+    <row r="96" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E96" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E57" t="s">
+    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E97" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" t="s">
+    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="E61" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E62" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E63" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E64" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E66" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E67" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E68" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="E69" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E72" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="E74" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="E75" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="E76" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="E77" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="E78" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="E79" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="E81" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="E82" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E83" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="E84" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="E85" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="E86" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="E87" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="E88" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="E89" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="24" t="s">
-        <v>903</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="24" t="s">
-        <v>905</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="24" t="s">
-        <v>907</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="24" t="s">
-        <v>909</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="24" t="s">
-        <v>915</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="24" t="s">
-        <v>923</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>924</v>
-      </c>
-    </row>
     <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="27" t="s">
+        <v>1119</v>
+      </c>
       <c r="B100" s="24" t="s">
-        <v>925</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E102" t="s">
-        <v>928</v>
+        <v>1122</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="27" t="s">
+        <v>1126</v>
+      </c>
       <c r="B103" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>929</v>
+        <v>620</v>
+      </c>
+      <c r="E103" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="24" t="s">
-        <v>468</v>
+      <c r="B104" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="E104" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="2" t="s">
-        <v>931</v>
+      <c r="B105" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="E105" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="D107" t="s">
-        <v>935</v>
-      </c>
-      <c r="E107" t="s">
-        <v>936</v>
+        <v>1127</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="24" t="s">
-        <v>530</v>
+      <c r="A108" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="E108" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="E109" t="s">
-        <v>938</v>
+      <c r="A109" s="27"/>
+      <c r="B109" s="28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="24" t="s">
-        <v>524</v>
+      <c r="B110" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="E110" t="s">
-        <v>939</v>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>361</v>
+      <c r="B112" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="E112" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E113" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>832</v>
+      </c>
       <c r="B114" s="3" t="s">
-        <v>369</v>
+        <v>833</v>
       </c>
       <c r="E114" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>385</v>
+        <v>835</v>
       </c>
       <c r="E115" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>419</v>
+        <v>837</v>
       </c>
       <c r="E116" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="24" t="s">
-        <v>244</v>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="E117" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="25" t="s">
-        <v>968</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="24" t="s">
+        <v>1134</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>970</v>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="24" t="s">
+        <v>1135</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>974</v>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>1139</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>977</v>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="24" t="s">
+        <v>1140</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
-        <v>979</v>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="24" t="s">
+        <v>1141</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>982</v>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>1146</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>989</v>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="24" t="s">
+        <v>1148</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>984</v>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="24" t="s">
+        <v>1149</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
-        <v>987</v>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="24" t="s">
+        <v>1150</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="25"/>
-    </row>
-    <row r="130" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="25"/>
-    </row>
-    <row r="131" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>946</v>
-      </c>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="24" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1153</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="E132" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1154</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="E133" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E134" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E136" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E137" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E138" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E139" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E140" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="E142" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E143" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E144" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E145" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E147" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E148" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E149" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E150" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E151" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E152" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="157" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E157" t="s">
-        <v>967</v>
+        <v>1155</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="24" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="24" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="24" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B39 B41:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B138:B1048576 B88:B99 B8 B12 B18:B26 B85 B28:B30 B1:B3 B64:B69 B71:B72 B103:B136">
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B83">
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:B1048576 B1:B101 B103:B136">
+    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>795</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E12" t="s">
+        <v>802</v>
+      </c>
+      <c r="F12" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E15" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="23" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" t="s">
+        <v>841</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" t="s">
+        <v>856</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E32" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E34" t="s">
+        <v>861</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E36" t="s">
+        <v>866</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E37" t="s">
+        <v>868</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E40" t="s">
+        <v>870</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E41" t="s">
+        <v>872</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E43" t="s">
+        <v>878</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E44" t="s">
+        <v>880</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E45" t="s">
+        <v>881</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E46" t="s">
+        <v>883</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>884</v>
+      </c>
+      <c r="E47" t="s">
+        <v>885</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>894</v>
+      </c>
+      <c r="E48" t="s">
+        <v>895</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>896</v>
+      </c>
+      <c r="E49" t="s">
+        <v>897</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>898</v>
+      </c>
+      <c r="E50" t="s">
+        <v>899</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>886</v>
+      </c>
+      <c r="E51" t="s">
+        <v>887</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>908</v>
+      </c>
+      <c r="D52" t="s">
+        <v>909</v>
+      </c>
+      <c r="E52" t="s">
+        <v>910</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>916</v>
+      </c>
+      <c r="D53" t="s">
+        <v>917</v>
+      </c>
+      <c r="E53" t="s">
+        <v>918</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>888</v>
+      </c>
+      <c r="E54" t="s">
+        <v>889</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>890</v>
+      </c>
+      <c r="E55" t="s">
+        <v>891</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
+        <v>892</v>
+      </c>
+      <c r="E56" t="s">
+        <v>893</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>911</v>
+      </c>
+      <c r="D57" t="s">
+        <v>912</v>
+      </c>
+      <c r="E57" t="s">
+        <v>913</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>914</v>
+      </c>
+      <c r="E58" t="s">
+        <v>915</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>900</v>
+      </c>
+      <c r="E59" t="s">
+        <v>901</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>902</v>
+      </c>
+      <c r="E60" t="s">
+        <v>903</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>904</v>
+      </c>
+      <c r="E61" t="s">
+        <v>905</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>906</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E62" t="s">
+        <v>907</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>873</v>
+      </c>
+      <c r="E63" t="s">
+        <v>874</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>875</v>
+      </c>
+      <c r="E64" t="s">
+        <v>981</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="26" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="26" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="26" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="26" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="26" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B35">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B46">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B27">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1180">
   <si>
     <t>hyper text</t>
   </si>
@@ -5994,6 +5994,26 @@
   </si>
   <si>
     <t> /brek/ </t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ove</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t> /muv/</t>
   </si>
 </sst>
 </file>
@@ -6292,9 +6312,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6306,6 +6323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6795,22 +6815,22 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6822,22 +6842,22 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9737,10 +9757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9760,7 +9780,7 @@
       <c r="E1" s="12" t="s">
         <v>1070</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -9771,7 +9791,7 @@
       <c r="E2" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -9780,23 +9800,23 @@
       <c r="E3" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>1096</v>
       </c>
       <c r="E6" t="s">
@@ -9804,7 +9824,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>1097</v>
       </c>
       <c r="E7" t="s">
@@ -9860,7 +9880,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>1091</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -10130,7 +10150,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>1176</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -10229,7 +10249,7 @@
       <c r="B60"/>
     </row>
     <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>1092</v>
       </c>
       <c r="B61" t="s">
@@ -10297,7 +10317,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="E69" s="12" t="s">
@@ -10308,10 +10328,10 @@
       <c r="B70"/>
     </row>
     <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>1106</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="27" t="s">
         <v>1120</v>
       </c>
       <c r="E71" t="s">
@@ -10319,7 +10339,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="E72" s="12" t="s">
@@ -10327,7 +10347,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="27" t="s">
         <v>1109</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -10335,7 +10355,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="27" t="s">
         <v>1110</v>
       </c>
       <c r="E74" s="12" t="s">
@@ -10343,7 +10363,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>1108</v>
       </c>
       <c r="E75" s="12" t="s">
@@ -10351,19 +10371,19 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>1159</v>
       </c>
       <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>1160</v>
       </c>
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>1113</v>
       </c>
       <c r="E78" s="12" t="s">
@@ -10371,7 +10391,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>1114</v>
       </c>
       <c r="E79" s="12" t="s">
@@ -10379,7 +10399,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>1115</v>
       </c>
       <c r="E80" s="12" t="s">
@@ -10527,7 +10547,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>1119</v>
       </c>
       <c r="B100" s="24" t="s">
@@ -10546,7 +10566,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="26" t="s">
         <v>1126</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -10581,7 +10601,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="26" t="s">
         <v>1129</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -10592,8 +10612,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
-      <c r="B109" s="28" t="s">
+      <c r="A109" s="26"/>
+      <c r="B109" s="27" t="s">
         <v>1131</v>
       </c>
       <c r="E109" s="12" t="s">
@@ -10609,7 +10629,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="27" t="s">
         <v>1132</v>
       </c>
       <c r="E111" s="12" t="s">
@@ -10660,160 +10680,168 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="24" t="s">
-        <v>1134</v>
+      <c r="B118" s="27" t="s">
+        <v>1178</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>1136</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="24" t="s">
         <v>1135</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E120" s="12" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="27" t="s">
+    <row r="122" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B122" s="24" t="s">
         <v>1139</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E122" s="12" t="s">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="24" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="24" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="24" t="s">
         <v>1141</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E124" s="12" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+    <row r="126" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B126" s="24" t="s">
         <v>1146</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E126" s="12" t="s">
         <v>1147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="24" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="24" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="24" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="24" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="24" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="24" t="s">
         <v>1162</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E139" s="12" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -10822,13 +10850,13 @@
   <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138:B1048576 B88:B99 B8 B12 B18:B26 B85 B28:B30 B1:B3 B64:B69 B71:B72 B103:B136">
+  <conditionalFormatting sqref="B139:B1048576 B88:B99 B8 B12 B18:B26 B85 B28:B30 B1:B3 B64:B69 B71:B72 B103:B137">
     <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
     <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138:B1048576 B1:B101 B103:B136">
+  <conditionalFormatting sqref="B139:B1048576 B1:B101 B103:B137">
     <cfRule type="duplicateValues" dxfId="5" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10882,7 +10910,7 @@
       <c r="E4" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -10930,7 +10958,7 @@
       <c r="E8" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11019,7 +11047,7 @@
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>1042</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -11046,7 +11074,7 @@
       <c r="B21" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -11058,7 +11086,7 @@
       <c r="E22" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -11088,7 +11116,7 @@
       <c r="E25" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -11100,7 +11128,7 @@
       <c r="E26" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -11120,7 +11148,7 @@
       <c r="E29" t="s">
         <v>841</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -11134,7 +11162,7 @@
       <c r="E31" t="s">
         <v>856</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11164,7 +11192,7 @@
       <c r="E34" t="s">
         <v>861</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -11181,7 +11209,7 @@
       <c r="E36" t="s">
         <v>866</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>984</v>
       </c>
     </row>
@@ -11193,7 +11221,7 @@
       <c r="E37" t="s">
         <v>868</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>983</v>
       </c>
     </row>
@@ -11223,7 +11251,7 @@
       <c r="E40" t="s">
         <v>870</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>985</v>
       </c>
     </row>
@@ -11235,7 +11263,7 @@
       <c r="E41" t="s">
         <v>872</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="25" t="s">
         <v>986</v>
       </c>
     </row>
@@ -11250,7 +11278,7 @@
       <c r="E42" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>987</v>
       </c>
     </row>
@@ -11262,7 +11290,7 @@
       <c r="E43" t="s">
         <v>878</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>988</v>
       </c>
     </row>
@@ -11274,7 +11302,7 @@
       <c r="E44" t="s">
         <v>880</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>989</v>
       </c>
     </row>
@@ -11286,7 +11314,7 @@
       <c r="E45" t="s">
         <v>881</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="25" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11298,7 +11326,7 @@
       <c r="E46" t="s">
         <v>883</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11310,7 +11338,7 @@
       <c r="E47" t="s">
         <v>885</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>992</v>
       </c>
     </row>
@@ -11322,7 +11350,7 @@
       <c r="E48" t="s">
         <v>895</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>993</v>
       </c>
     </row>
@@ -11334,7 +11362,7 @@
       <c r="E49" t="s">
         <v>897</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="25" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11346,7 +11374,7 @@
       <c r="E50" t="s">
         <v>899</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="25" t="s">
         <v>999</v>
       </c>
     </row>
@@ -11358,7 +11386,7 @@
       <c r="E51" t="s">
         <v>887</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>995</v>
       </c>
     </row>
@@ -11373,7 +11401,7 @@
       <c r="E52" t="s">
         <v>910</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -11388,7 +11416,7 @@
       <c r="E53" t="s">
         <v>918</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11400,7 +11428,7 @@
       <c r="E54" t="s">
         <v>889</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>996</v>
       </c>
     </row>
@@ -11412,7 +11440,7 @@
       <c r="E55" t="s">
         <v>891</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="25" t="s">
         <v>997</v>
       </c>
     </row>
@@ -11424,7 +11452,7 @@
       <c r="E56" t="s">
         <v>893</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>998</v>
       </c>
     </row>
@@ -11438,7 +11466,7 @@
       <c r="E57" t="s">
         <v>913</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="25" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -11449,7 +11477,7 @@
       <c r="E58" t="s">
         <v>915</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -11461,10 +11489,10 @@
       <c r="E59" t="s">
         <v>901</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="25" t="s">
         <v>1000</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="25" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -11476,7 +11504,7 @@
       <c r="E60" t="s">
         <v>903</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="25" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -11488,7 +11516,7 @@
       <c r="E61" t="s">
         <v>905</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="25" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -11503,7 +11531,7 @@
       <c r="E62" t="s">
         <v>907</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="25" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -11514,7 +11542,7 @@
       <c r="E63" t="s">
         <v>874</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="25" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -11525,153 +11553,153 @@
       <c r="E64" t="s">
         <v>981</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="25" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>1012</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>1015</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="25" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
         <v>1013</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="25" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>1014</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>1021</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>1022</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>1050</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="25" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>1023</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>1054</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="25" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>1024</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="25" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>1025</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="25" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="25" t="s">
         <v>1026</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="25" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>1027</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>1060</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="25" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>1028</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>1062</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="25" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>1029</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="25" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>1030</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>1066</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="25" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>1032</v>
       </c>
       <c r="D80" s="12" t="s">
@@ -11679,38 +11707,38 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="25" t="s">
         <v>1033</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="25" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="25" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="25" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="25" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="25" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="26"/>
+      <c r="B89" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>

--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1184">
   <si>
     <t>hyper text</t>
   </si>
@@ -5151,10 +5151,6 @@
     <t> /ɪm'pɔrtnt/</t>
   </si>
   <si>
-    <t>impotant</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>重要</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -6014,6 +6010,26 @@
   </si>
   <si>
     <t> /muv/</t>
+  </si>
+  <si>
+    <t>important</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>被输入激活</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾斜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>草书</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6236,7 +6252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6321,11 +6337,14 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6815,22 +6834,22 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6842,22 +6861,22 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9759,8 +9778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9786,22 +9805,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>1086</v>
-      </c>
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>1073</v>
+      <c r="B3" s="24" t="s">
+        <v>1179</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1072</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9812,12 +9831,12 @@
         <v>937</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E6" t="s">
         <v>938</v>
@@ -9825,7 +9844,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E7" t="s">
         <v>939</v>
@@ -9838,64 +9857,67 @@
       <c r="E8" t="s">
         <v>940</v>
       </c>
+      <c r="F8" t="s">
+        <v>1180</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10025,7 +10047,7 @@
     <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>440</v>
       </c>
@@ -10036,15 +10058,18 @@
         <v>919</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
         <v>451</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="25" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>468</v>
       </c>
@@ -10052,7 +10077,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>922</v>
       </c>
@@ -10060,7 +10085,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>482</v>
       </c>
@@ -10068,7 +10093,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>925</v>
       </c>
@@ -10079,7 +10104,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>530</v>
       </c>
@@ -10087,15 +10112,18 @@
         <v>928</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
         <v>520</v>
       </c>
       <c r="E40" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="25" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>524</v>
       </c>
@@ -10103,10 +10131,10 @@
         <v>930</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>352</v>
       </c>
@@ -10117,7 +10145,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>396</v>
       </c>
@@ -10125,7 +10153,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>369</v>
       </c>
@@ -10133,7 +10161,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>385</v>
       </c>
@@ -10141,7 +10169,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>419</v>
       </c>
@@ -10149,12 +10177,15 @@
         <v>935</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+    <row r="48" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>1177</v>
+      <c r="F48" s="25" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10250,13 +10281,13 @@
     </row>
     <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B61" t="s">
         <v>1092</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" s="12" t="s">
         <v>1093</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10277,7 +10308,7 @@
       <c r="A64" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>548</v>
       </c>
       <c r="E64" t="s">
@@ -10285,7 +10316,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>557</v>
       </c>
       <c r="E65" t="s">
@@ -10293,7 +10324,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>640</v>
       </c>
       <c r="E66" t="s">
@@ -10301,7 +10332,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>623</v>
       </c>
       <c r="E67" t="s">
@@ -10309,7 +10340,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>551</v>
       </c>
       <c r="E68" t="s">
@@ -10317,11 +10348,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="27" t="s">
+      <c r="B69" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>1104</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10329,81 +10360,81 @@
     </row>
     <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>1120</v>
+        <v>1105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1119</v>
       </c>
       <c r="E71" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="27" t="s">
-        <v>1107</v>
+      <c r="B72" t="s">
+        <v>1106</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="27" t="s">
+      <c r="E75" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="E74" s="12" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="25" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="25" t="s">
+    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="25" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="25" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>1117</v>
-      </c>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>1115</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10432,34 +10463,34 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>1098</v>
       </c>
-      <c r="E84" s="12" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="27" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="24" t="s">
+      <c r="E85" s="12" t="s">
         <v>1100</v>
       </c>
-      <c r="E85" s="12" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="27" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="24" t="s">
+      <c r="E86" s="12" t="s">
         <v>1102</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E88" t="s">
@@ -10467,7 +10498,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>843</v>
       </c>
       <c r="E89" t="s">
@@ -10475,7 +10506,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>845</v>
       </c>
       <c r="E90" t="s">
@@ -10483,7 +10514,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>204</v>
       </c>
       <c r="E91" t="s">
@@ -10531,7 +10562,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>617</v>
       </c>
       <c r="E97" t="s">
@@ -10548,26 +10579,26 @@
     </row>
     <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B100" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="27" t="s">
         <v>1122</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E101" s="12" t="s">
         <v>1124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="24" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>620</v>
@@ -10594,15 +10625,15 @@
     </row>
     <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>1127</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>660</v>
@@ -10614,14 +10645,14 @@
     <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
       <c r="B109" s="27" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>632</v>
       </c>
       <c r="E110" t="s">
@@ -10630,10 +10661,10 @@
     </row>
     <row r="111" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>1132</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10681,168 +10712,168 @@
     </row>
     <row r="118" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E118" s="12" t="s">
         <v>1178</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="24" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="24" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B122" s="27" t="s">
         <v>1138</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="E122" s="12" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="27" t="s">
         <v>1139</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E123" s="12" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="24" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="24" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="26" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B126" s="27" t="s">
         <v>1145</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="E126" s="12" t="s">
         <v>1146</v>
       </c>
-      <c r="E126" s="12" t="s">
+    </row>
+    <row r="127" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="27" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="24" t="s">
+      <c r="E127" s="12" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="27" t="s">
         <v>1148</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E128" s="12" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="24" t="s">
+    <row r="129" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="27" t="s">
         <v>1149</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E129" s="12" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="24" t="s">
+    <row r="130" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="27" t="s">
         <v>1150</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E130" s="12" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="24" t="s">
+    <row r="131" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="27" t="s">
         <v>1151</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E131" s="12" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="24" t="s">
+    <row r="132" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="27" t="s">
         <v>1152</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="24" t="s">
+    <row r="133" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="27" t="s">
         <v>1153</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E133" s="12" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="24" t="s">
+    <row r="134" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="24" t="s">
+    <row r="135" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="27" t="s">
         <v>1155</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E135" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="24" t="s">
+    <row r="136" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="27" t="s">
         <v>1156</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E136" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="24" t="s">
+    <row r="137" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="27" t="s">
         <v>1157</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E137" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="24" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E137" s="12" t="s">
+    <row r="138" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="24" t="s">
+    <row r="139" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="27" t="s">
         <v>1161</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E139" s="12" t="s">
         <v>1174</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="24" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -10850,13 +10881,13 @@
   <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B1048576 B88:B99 B8 B12 B18:B26 B85 B28:B30 B1:B3 B64:B69 B71:B72 B103:B137">
+  <conditionalFormatting sqref="B139:B1048576 B88:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B73 B75 B98:B99 B111:B137">
     <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
     <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B1048576 B1:B101 B103:B137">
+  <conditionalFormatting sqref="B139:B1048576 B103:B109 B1:B96 B98:B101 B111:B137">
     <cfRule type="duplicateValues" dxfId="5" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1195">
   <si>
     <t>hyper text</t>
   </si>
@@ -6029,6 +6029,47 @@
   </si>
   <si>
     <t>打断</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'bæləns/</t>
+  </si>
+  <si>
+    <t>/kaʊnt/</t>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wet/</t>
+  </si>
+  <si>
+    <t>十字</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>可移动</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙碌</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -6252,7 +6293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6337,20 +6378,17 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6407,16 +6445,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -6834,22 +6862,22 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6861,22 +6889,22 @@
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9764,10 +9792,10 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A12 A5:A9 A21:A27 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A27 A5:A9 A12 A18:A19 A35:A1048576 A31:A33 A29">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9776,10 +9804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9851,8 +9879,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>675</v>
+      <c r="B8" s="25" t="s">
+        <v>1184</v>
       </c>
       <c r="E8" t="s">
         <v>940</v>
@@ -10059,7 +10087,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" t="s">
         <v>451</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -10116,6 +10144,9 @@
       <c r="B40" s="15" t="s">
         <v>520</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="E40" t="s">
         <v>929</v>
       </c>
@@ -10178,7 +10209,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="29" t="s">
+      <c r="B48" t="s">
         <v>1175</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -10378,7 +10409,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="15" t="s">
+      <c r="B73" t="s">
         <v>1108</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -10386,7 +10417,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="25" t="s">
+      <c r="B74" t="s">
         <v>1112</v>
       </c>
       <c r="E74" s="12" t="s">
@@ -10394,7 +10425,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="15" t="s">
+      <c r="B75" t="s">
         <v>1109</v>
       </c>
       <c r="E75" s="12" t="s">
@@ -10402,7 +10433,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+      <c r="B76" t="s">
         <v>1107</v>
       </c>
       <c r="E76" s="12" t="s">
@@ -10410,14 +10441,20 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="28" t="s">
         <v>1158</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>1159</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
       </c>
       <c r="E78" s="12"/>
     </row>
@@ -10444,7 +10481,7 @@
       <c r="A82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>301</v>
       </c>
       <c r="E82" t="s">
@@ -10452,7 +10489,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>304</v>
       </c>
       <c r="C83">
@@ -10463,7 +10500,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="27" t="s">
+      <c r="B84" t="s">
         <v>1097</v>
       </c>
       <c r="E84" s="12" t="s">
@@ -10474,6 +10511,9 @@
       <c r="B85" s="27" t="s">
         <v>1099</v>
       </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
       <c r="E85" s="12" t="s">
         <v>1100</v>
       </c>
@@ -10482,6 +10522,9 @@
       <c r="B86" s="27" t="s">
         <v>1101</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
       <c r="E86" s="12" t="s">
         <v>1102</v>
       </c>
@@ -10490,7 +10533,7 @@
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>186</v>
       </c>
       <c r="E88" t="s">
@@ -10498,7 +10541,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>843</v>
       </c>
       <c r="E89" t="s">
@@ -10506,7 +10549,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>845</v>
       </c>
       <c r="E90" t="s">
@@ -10514,7 +10557,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>204</v>
       </c>
       <c r="E91" t="s">
@@ -10570,7 +10613,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>248</v>
       </c>
       <c r="E98" t="s">
@@ -10581,7 +10624,7 @@
       <c r="A100" s="26" t="s">
         <v>1118</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" t="s">
         <v>1121</v>
       </c>
       <c r="E100" s="12" t="s">
@@ -10589,7 +10632,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="27" t="s">
+      <c r="B101" t="s">
         <v>1122</v>
       </c>
       <c r="E101" s="12" t="s">
@@ -10675,7 +10718,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>832</v>
       </c>
@@ -10686,7 +10729,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>835</v>
       </c>
@@ -10694,200 +10737,234 @@
         <v>836</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>837</v>
       </c>
       <c r="E116" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="25" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>839</v>
       </c>
       <c r="E117" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="25" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="27" t="s">
         <v>1177</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="24" t="s">
+      <c r="F118" s="25" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="27" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="24" t="s">
         <v>1133</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E120" s="12" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="24" t="s">
+    <row r="121" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="24" t="s">
         <v>1134</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E121" s="12" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="26" t="s">
+    <row r="123" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B123" s="27" t="s">
         <v>1138</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E123" s="12" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="27" t="s">
+    <row r="124" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124" s="27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="27" t="s">
         <v>1139</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E125" s="12" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="27" t="s">
+    <row r="126" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="27" t="s">
         <v>1140</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E126" s="12" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
+    <row r="127" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
         <v>1144</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B129" s="27" t="s">
         <v>1145</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E129" s="12" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="27" t="s">
+    <row r="130" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="27" t="s">
         <v>1147</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E130" s="12" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="27" t="s">
+    <row r="131" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="27" t="s">
         <v>1148</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E131" s="12" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="27" t="s">
+    <row r="132" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="27" t="s">
         <v>1149</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="27" t="s">
+    <row r="133" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="27" t="s">
         <v>1150</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E133" s="12" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="27" t="s">
+    <row r="134" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="27" t="s">
         <v>1151</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="27" t="s">
+    <row r="135" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="27" t="s">
         <v>1152</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E135" s="12" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="27" t="s">
+    <row r="136" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="27" t="s">
         <v>1153</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E136" s="12" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="27" t="s">
+    <row r="137" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E137" s="12" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="27" t="s">
+    <row r="138" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="27" t="s">
         <v>1155</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E138" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="27" t="s">
+    <row r="139" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="27" t="s">
         <v>1156</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E139" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="27" t="s">
+    <row r="140" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="27" t="s">
         <v>1157</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E140" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="27" t="s">
+    <row r="141" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="27" t="s">
         <v>1160</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E141" s="12" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="27" t="s">
+    <row r="142" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="27" t="s">
         <v>1161</v>
       </c>
-      <c r="E139" s="12" t="s">
+      <c r="E142" s="12" t="s">
         <v>1174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B1048576 B88:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B73 B75 B98:B99 B111:B137">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+  <conditionalFormatting sqref="B142:B1048576 B92:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B72 B99 B111:B140">
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B1048576 B103:B109 B1:B96 B98:B101 B111:B137">
+  <conditionalFormatting sqref="B142:B1048576 B103:B109 B99 B111:B140 B92:B96 B85:B87 B77:B81 B1:B72">
     <cfRule type="duplicateValues" dxfId="5" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/css/中英一览表.xlsx
+++ b/css/中英一览表.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cat\web\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7D02E-2C32-4F56-8FB6-FF0AA25C7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11625" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS" sheetId="2" r:id="rId2"/>
-    <sheet name="HTML" sheetId="3" r:id="rId3"/>
+    <sheet name="HTML" sheetId="3" r:id="rId2"/>
+    <sheet name="CSS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1197">
   <si>
     <t>hyper text</t>
   </si>
@@ -408,9 +409,6 @@
     <t>pen</t>
   </si>
   <si>
-    <t>ɛ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -3911,9 +3909,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>[ˈædres]</t>
-  </si>
-  <si>
     <t>地址</t>
   </si>
   <si>
@@ -6072,12 +6067,71 @@
     <t>忙碌</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>/ˈmetə/</t>
+  </si>
+  <si>
+    <t>元标签</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɛ</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ædr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6257,6 +6311,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6759,11 +6827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7079,29 +7147,29 @@
         <v>77</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="I17" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
         <v>70</v>
@@ -7112,82 +7180,82 @@
     </row>
     <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>87</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" t="s">
         <v>90</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="I19" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="J19" s="16"/>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="I21" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="N21" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P21" t="s">
         <v>71</v>
@@ -7195,41 +7263,41 @@
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
         <v>110</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>111</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="N23" t="s">
         <v>71</v>
@@ -7237,65 +7305,65 @@
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" t="s">
         <v>120</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>121</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="I25" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="L25" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="H26" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="M26" t="s">
         <v>57</v>
@@ -7303,174 +7371,174 @@
     </row>
     <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="I27" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="F28" t="s">
         <v>143</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>144</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
         <v>148</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
         <v>151</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="F30" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>154</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
         <v>158</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="M31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="F32" t="s">
         <v>163</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>164</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
         <v>168</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="I33" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="L33" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="s">
         <v>174</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="F34" t="s">
         <v>176</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="H34" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="J35" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="L35" t="s">
         <v>57</v>
@@ -7478,44 +7546,44 @@
     </row>
     <row r="36" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>189</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>196</v>
-      </c>
       <c r="M37" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s">
         <v>71</v>
@@ -7523,71 +7591,71 @@
     </row>
     <row r="38" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
         <v>199</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>200</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
         <v>209</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>210</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="M40" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="N40" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="P40" t="s">
         <v>71</v>
@@ -7595,60 +7663,60 @@
     </row>
     <row r="41" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
         <v>221</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>222</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L43" s="16"/>
       <c r="M43" t="s">
@@ -7657,1832 +7725,1832 @@
     </row>
     <row r="44" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
         <v>233</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>234</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="K44" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" t="s">
         <v>241</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="F46" t="s">
         <v>243</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>244</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="K46" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" t="s">
         <v>248</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
         <v>251</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="F48" t="s">
         <v>253</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>254</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" t="s">
         <v>258</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="I49" t="s">
         <v>260</v>
       </c>
-      <c r="I49" t="s">
-        <v>261</v>
-      </c>
       <c r="L49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" t="s">
         <v>262</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="F50" t="s">
         <v>264</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>265</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="J50" t="s">
         <v>267</v>
-      </c>
-      <c r="J50" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" t="s">
         <v>269</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="L51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" t="s">
         <v>273</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>274</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" t="s">
         <v>280</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="F54" t="s">
         <v>282</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>283</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
         <v>290</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="H56" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
         <v>297</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="H58" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" t="s">
         <v>306</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G60" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="I60" t="s">
         <v>308</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>309</v>
-      </c>
-      <c r="L60" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
         <v>313</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="F62" t="s">
         <v>315</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>316</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="I62" t="s">
         <v>318</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>319</v>
-      </c>
-      <c r="L62" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63" t="s">
         <v>321</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" t="s">
         <v>325</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>326</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="J64" t="s">
         <v>328</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>329</v>
-      </c>
-      <c r="L64" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" t="s">
         <v>331</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" t="s">
         <v>334</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="F66" t="s">
         <v>336</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>337</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>339</v>
-      </c>
       <c r="J66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" t="s">
         <v>340</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" t="s">
         <v>343</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="F68" t="s">
         <v>345</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>346</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>348</v>
-      </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" t="s">
         <v>349</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70" t="s">
         <v>352</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="F70" t="s">
         <v>354</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>355</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>357</v>
-      </c>
       <c r="I70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>357</v>
+      </c>
+      <c r="B71" t="s">
         <v>358</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" t="s">
         <v>361</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
         <v>363</v>
       </c>
-      <c r="F72" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="I72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" t="s">
         <v>366</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" t="s">
         <v>369</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="F74" t="s">
         <v>371</v>
-      </c>
-      <c r="F74" t="s">
-        <v>372</v>
       </c>
       <c r="G74" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" t="s">
         <v>374</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" t="s">
         <v>377</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="F76" t="s">
         <v>379</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>380</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="I76" t="s">
         <v>382</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>329</v>
+      </c>
+      <c r="L76" t="s">
         <v>383</v>
-      </c>
-      <c r="J76" t="s">
-        <v>330</v>
-      </c>
-      <c r="L76" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" t="s">
         <v>385</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" t="s">
         <v>388</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="F78" t="s">
         <v>390</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>391</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="I78" t="s">
         <v>393</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>394</v>
       </c>
-      <c r="J78" t="s">
-        <v>395</v>
-      </c>
       <c r="L78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" t="s">
         <v>396</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" t="s">
         <v>399</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="F80" t="s">
         <v>401</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>402</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="I80" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I81" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" t="s">
         <v>409</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="F82" t="s">
         <v>411</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>412</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="I82" s="20" t="s">
         <v>414</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>415</v>
+      </c>
+      <c r="B83" t="s">
         <v>416</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" t="s">
         <v>419</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84" t="s">
         <v>421</v>
       </c>
-      <c r="F84" t="s">
-        <v>334</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="I84" t="s">
         <v>423</v>
-      </c>
-      <c r="I84" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" t="s">
         <v>425</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="I85" s="20" t="s">
         <v>427</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B86" t="s">
         <v>429</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="F86" t="s">
         <v>431</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>432</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="I86" t="s">
         <v>434</v>
-      </c>
-      <c r="I86" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>435</v>
+      </c>
+      <c r="B87" t="s">
         <v>436</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="I87" s="20" t="s">
         <v>438</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>439</v>
+      </c>
+      <c r="B88" t="s">
         <v>440</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="F88" t="s">
         <v>442</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>443</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="I88" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>446</v>
+      </c>
+      <c r="B89" t="s">
         <v>447</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="I89" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="I89" s="20" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>450</v>
+      </c>
+      <c r="B90" t="s">
         <v>451</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="F90" t="s">
         <v>453</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>454</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="I90" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="I90" s="20" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>457</v>
+      </c>
+      <c r="B91" t="s">
         <v>458</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="I91" s="20" t="s">
         <v>460</v>
-      </c>
-      <c r="I91" s="20" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B92" t="s">
-        <v>410</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="F92" t="s">
         <v>463</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>464</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="I92" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>467</v>
+      </c>
+      <c r="B93" t="s">
         <v>468</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="I93" t="s">
         <v>470</v>
-      </c>
-      <c r="I93" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>471</v>
+      </c>
+      <c r="B94" t="s">
         <v>472</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="F94" t="s">
         <v>474</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>475</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="I94" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="I94" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>478</v>
+      </c>
+      <c r="B95" t="s">
         <v>479</v>
       </c>
-      <c r="B95" t="s">
+      <c r="I95" t="s">
         <v>480</v>
-      </c>
-      <c r="I95" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>481</v>
+      </c>
+      <c r="B96" t="s">
         <v>482</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="F96" t="s">
         <v>484</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>485</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="I96" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" t="s">
         <v>489</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="I97" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>492</v>
+      </c>
+      <c r="B98" t="s">
         <v>493</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="F98" t="s">
         <v>495</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>496</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="I98" s="20" t="s">
         <v>498</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99" t="s">
         <v>500</v>
       </c>
-      <c r="B99" t="s">
+      <c r="I99" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="P99" t="s">
         <v>502</v>
-      </c>
-      <c r="P99" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>503</v>
+      </c>
+      <c r="B100" t="s">
         <v>504</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="F100" t="s">
+        <v>136</v>
+      </c>
+      <c r="G100" t="s">
+        <v>200</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F100" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100" t="s">
-        <v>201</v>
-      </c>
-      <c r="H100" s="9" t="s">
+      <c r="I100" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="I100" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>508</v>
+      </c>
+      <c r="B101" t="s">
         <v>509</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="I101" s="20" t="s">
         <v>511</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>512</v>
+      </c>
+      <c r="B102" t="s">
         <v>513</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="F102" t="s">
         <v>515</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>516</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="I102" s="20" t="s">
         <v>518</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>519</v>
+      </c>
+      <c r="B103" t="s">
         <v>520</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="I103" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>523</v>
+      </c>
+      <c r="B104" t="s">
         <v>524</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="F104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" t="s">
         <v>526</v>
       </c>
-      <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="I104" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="I104" s="20" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>529</v>
+      </c>
+      <c r="B105" t="s">
         <v>530</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="I105" s="20" t="s">
         <v>532</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>533</v>
+      </c>
+      <c r="B106" t="s">
         <v>534</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="F106" t="s">
         <v>536</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>537</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="I106" s="20" t="s">
         <v>539</v>
-      </c>
-      <c r="I106" s="20" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107" t="s">
         <v>541</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="I107" s="20" t="s">
         <v>543</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>544</v>
+      </c>
+      <c r="B108" t="s">
         <v>545</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>547</v>
+      </c>
+      <c r="B109" t="s">
         <v>548</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>550</v>
+      </c>
+      <c r="B110" t="s">
         <v>551</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>553</v>
+      </c>
+      <c r="B111" t="s">
         <v>554</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>556</v>
+      </c>
+      <c r="B112" t="s">
         <v>557</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>559</v>
+      </c>
+      <c r="B113" t="s">
         <v>560</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>562</v>
+      </c>
+      <c r="B114" t="s">
         <v>563</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>565</v>
+      </c>
+      <c r="B115" t="s">
         <v>566</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>568</v>
+      </c>
+      <c r="B116" t="s">
         <v>569</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>571</v>
+      </c>
+      <c r="B117" t="s">
         <v>572</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>574</v>
+      </c>
+      <c r="B118" t="s">
         <v>575</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>577</v>
+      </c>
+      <c r="B119" t="s">
         <v>578</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>580</v>
+      </c>
+      <c r="B120" t="s">
         <v>581</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>583</v>
+      </c>
+      <c r="B121" t="s">
         <v>584</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>586</v>
+      </c>
+      <c r="B122" t="s">
         <v>587</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>589</v>
+      </c>
+      <c r="B123" t="s">
         <v>590</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>592</v>
+      </c>
+      <c r="B124" t="s">
         <v>593</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>595</v>
+      </c>
+      <c r="B125" t="s">
         <v>596</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>598</v>
+      </c>
+      <c r="B126" t="s">
         <v>599</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>601</v>
+      </c>
+      <c r="B127" t="s">
         <v>602</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>604</v>
+      </c>
+      <c r="B128" t="s">
         <v>605</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>607</v>
+      </c>
+      <c r="B129" t="s">
         <v>608</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>610</v>
+      </c>
+      <c r="B130" t="s">
         <v>611</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>613</v>
+      </c>
+      <c r="B131" t="s">
         <v>614</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>616</v>
+      </c>
+      <c r="B132" t="s">
         <v>617</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>619</v>
+      </c>
+      <c r="B133" t="s">
         <v>620</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>622</v>
+      </c>
+      <c r="B134" t="s">
         <v>623</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>625</v>
+      </c>
+      <c r="B135" t="s">
         <v>626</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>628</v>
+      </c>
+      <c r="B136" t="s">
         <v>629</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>631</v>
+      </c>
+      <c r="B137" t="s">
         <v>632</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>634</v>
+      </c>
+      <c r="B138" t="s">
         <v>635</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>637</v>
+      </c>
+      <c r="B139" t="s">
+        <v>331</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="B139" t="s">
-        <v>332</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>639</v>
+      </c>
+      <c r="B140" t="s">
         <v>640</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B142" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>645</v>
+      </c>
+      <c r="B143" t="s">
         <v>646</v>
-      </c>
-      <c r="B143" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>647</v>
+      </c>
+      <c r="B144" t="s">
         <v>648</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>650</v>
+      </c>
+      <c r="B145" t="s">
         <v>651</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>653</v>
+      </c>
+      <c r="B146" t="s">
         <v>654</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>656</v>
+      </c>
+      <c r="B147" t="s">
         <v>657</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>659</v>
+      </c>
+      <c r="B148" t="s">
         <v>660</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>662</v>
+      </c>
+      <c r="B149" t="s">
         <v>663</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B150" t="s">
+        <v>665</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>668</v>
+      </c>
+      <c r="B152" t="s">
         <v>669</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>671</v>
+      </c>
+      <c r="B153" t="s">
         <v>672</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>674</v>
+      </c>
+      <c r="B154" t="s">
         <v>675</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>677</v>
+      </c>
+      <c r="B155" t="s">
         <v>678</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>680</v>
+      </c>
+      <c r="B156" t="s">
         <v>681</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
+        <v>683</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
+        <v>685</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>689</v>
+      </c>
+      <c r="B160" t="s">
         <v>690</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>692</v>
+      </c>
+      <c r="B161" t="s">
         <v>693</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>695</v>
+      </c>
+      <c r="B162" t="s">
         <v>696</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>698</v>
+      </c>
+      <c r="B163" t="s">
         <v>699</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D163" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>701</v>
+      </c>
+      <c r="B164" t="s">
         <v>702</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>704</v>
+      </c>
+      <c r="B165" t="s">
         <v>705</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B166" t="s">
+        <v>707</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>709</v>
+      </c>
+      <c r="B167" t="s">
         <v>710</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>713</v>
+      </c>
+      <c r="B169" t="s">
         <v>714</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -9490,7 +9558,7 @@
     </row>
     <row r="171" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -9498,7 +9566,7 @@
     </row>
     <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -9506,160 +9574,160 @@
     </row>
     <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>723</v>
+      </c>
+      <c r="B175" t="s">
         <v>724</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>726</v>
+      </c>
+      <c r="B176" t="s">
         <v>727</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>729</v>
+      </c>
+      <c r="B177" t="s">
         <v>730</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>732</v>
+      </c>
+      <c r="D178" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>734</v>
+      </c>
+      <c r="B179" t="s">
         <v>735</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>737</v>
+      </c>
+      <c r="B180" t="s">
         <v>738</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>740</v>
+      </c>
+      <c r="B181" t="s">
         <v>741</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D181" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>743</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>745</v>
+      </c>
+      <c r="B183" t="s">
         <v>746</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>749</v>
+      </c>
+      <c r="B185" t="s">
+        <v>608</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="B185" t="s">
-        <v>609</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>751</v>
+      </c>
+      <c r="B186" t="s">
         <v>752</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" s="7" t="s">
         <v>753</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>754</v>
+      </c>
+      <c r="B187" t="s">
         <v>755</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -9667,29 +9735,29 @@
     </row>
     <row r="189" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>760</v>
+      </c>
+      <c r="B190" t="s">
         <v>761</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -9697,59 +9765,59 @@
     </row>
     <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>764</v>
+      </c>
+      <c r="B192" t="s">
         <v>765</v>
-      </c>
-      <c r="B192" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>766</v>
+      </c>
+      <c r="B193" t="s">
         <v>767</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" s="7" t="s">
         <v>768</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>771</v>
+      </c>
+      <c r="B196" t="s">
         <v>772</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>774</v>
+      </c>
+      <c r="B197" t="s">
         <v>775</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -9757,7 +9825,7 @@
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -9765,24 +9833,24 @@
     </row>
     <row r="200" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>779</v>
+      </c>
+      <c r="B200" t="s">
         <v>780</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D200" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -9803,1181 +9871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E6" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E7" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E8" t="s">
-        <v>940</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E27" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E28" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>599</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" t="s">
-        <v>447</v>
-      </c>
-      <c r="E33" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>451</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>468</v>
-      </c>
-      <c r="E35" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>922</v>
-      </c>
-      <c r="E36" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>482</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>925</v>
-      </c>
-      <c r="D38" t="s">
-        <v>926</v>
-      </c>
-      <c r="E38" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>530</v>
-      </c>
-      <c r="E39" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>929</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>524</v>
-      </c>
-      <c r="E41" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" t="s">
-        <v>361</v>
-      </c>
-      <c r="E43" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>396</v>
-      </c>
-      <c r="E44" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>369</v>
-      </c>
-      <c r="E45" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>419</v>
-      </c>
-      <c r="E47" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>953</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>955</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>958</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>961</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>963</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>972</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>966</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>973</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>968</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>971</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>541</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B64" t="s">
-        <v>548</v>
-      </c>
-      <c r="E64" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>557</v>
-      </c>
-      <c r="E65" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>640</v>
-      </c>
-      <c r="E66" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>623</v>
-      </c>
-      <c r="E67" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>551</v>
-      </c>
-      <c r="E68" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E71" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="28" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="12"/>
-    </row>
-    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="25" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="25" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B82" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="27" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="27" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>186</v>
-      </c>
-      <c r="E88" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>843</v>
-      </c>
-      <c r="E89" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>845</v>
-      </c>
-      <c r="E90" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E94" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E95" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E96" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>617</v>
-      </c>
-      <c r="E97" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="26" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E103" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E104" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E105" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E108" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
-      <c r="B109" s="27" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>632</v>
-      </c>
-      <c r="E110" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="27" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E112" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="E114" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="E115" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="E116" t="s">
-        <v>838</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="E117" t="s">
-        <v>840</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="27" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="27" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="24" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="24" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="27" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="27" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="27" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="27" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="27" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="27" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="27" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="27" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="27" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="27" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="27" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="27" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="27" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="27" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="27" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B1048576 B92:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B72 B99 B111:B140">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B1048576 B103:B109 B99 B111:B140 B92:B96 B85:B87 B77:B81 B1:B72">
-    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10989,46 +9887,52 @@
   <sheetData>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>786</v>
+      <c r="E2" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D3" t="s">
         <v>787</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>789</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>792</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E5" t="s">
         <v>793</v>
-      </c>
-      <c r="E5" t="s">
-        <v>794</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -11040,7 +9944,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -11049,7 +9953,7 @@
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>28</v>
@@ -11061,13 +9965,13 @@
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>974</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11076,7 +9980,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -11088,66 +9992,66 @@
         <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F10" t="s">
         <v>798</v>
-      </c>
-      <c r="F10" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F12" t="s">
         <v>801</v>
-      </c>
-      <c r="E12" t="s">
-        <v>802</v>
-      </c>
-      <c r="F12" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11156,152 +10060,152 @@
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="23" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="23" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E31" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E32" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11309,540 +10213,540 @@
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E36" t="s">
         <v>864</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E36" t="s">
-        <v>866</v>
-      </c>
       <c r="F36" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E37" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="24" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="24" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E41" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E43" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E44" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E45" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E46" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E47" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E48" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E50" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E51" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
+        <v>906</v>
+      </c>
+      <c r="D52" t="s">
+        <v>907</v>
+      </c>
+      <c r="E52" t="s">
         <v>908</v>
       </c>
-      <c r="D52" t="s">
-        <v>909</v>
-      </c>
-      <c r="E52" t="s">
-        <v>910</v>
-      </c>
       <c r="F52" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
+        <v>914</v>
+      </c>
+      <c r="D53" t="s">
+        <v>915</v>
+      </c>
+      <c r="E53" t="s">
         <v>916</v>
       </c>
-      <c r="D53" t="s">
-        <v>917</v>
-      </c>
-      <c r="E53" t="s">
-        <v>918</v>
-      </c>
       <c r="F53" s="25" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E54" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E55" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E56" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>909</v>
+      </c>
+      <c r="D57" t="s">
+        <v>910</v>
+      </c>
+      <c r="E57" t="s">
         <v>911</v>
       </c>
-      <c r="D57" t="s">
-        <v>912</v>
-      </c>
-      <c r="E57" t="s">
-        <v>913</v>
-      </c>
       <c r="F57" s="25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E58" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E59" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E60" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E61" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E62" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E63" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E64" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="25" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="25" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="25" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="25" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="25" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="25" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="25" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11866,5 +10770,1176 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>938</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" t="s">
+        <v>446</v>
+      </c>
+      <c r="E33" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>467</v>
+      </c>
+      <c r="E35" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>920</v>
+      </c>
+      <c r="E36" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>481</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>923</v>
+      </c>
+      <c r="D38" t="s">
+        <v>924</v>
+      </c>
+      <c r="E38" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>529</v>
+      </c>
+      <c r="E39" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>927</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="E44" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>368</v>
+      </c>
+      <c r="E45" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>951</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>953</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>956</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>959</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>961</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>970</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>964</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>971</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>966</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>969</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>540</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B64" t="s">
+        <v>547</v>
+      </c>
+      <c r="E64" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>556</v>
+      </c>
+      <c r="E65" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>639</v>
+      </c>
+      <c r="E66" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>622</v>
+      </c>
+      <c r="E67" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>550</v>
+      </c>
+      <c r="E68" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="28" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="E82" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>841</v>
+      </c>
+      <c r="E89" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>843</v>
+      </c>
+      <c r="E90" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E95" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E96" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>616</v>
+      </c>
+      <c r="E97" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="26" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E103" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E104" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E105" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E108" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>631</v>
+      </c>
+      <c r="E110" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E112" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E114" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E115" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E116" t="s">
+        <v>836</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E117" t="s">
+        <v>838</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="24" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124" s="27" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142:B1048576 B92:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B72 B99 B111:B140">
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142:B1048576 B103:B109 B99 B111:B140 B92:B96 B85:B87 B77:B81 B1:B72">
+    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>